--- a/data/nadpark/mmc6.xlsx
+++ b/data/nadpark/mmc6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/charalampos_tzoulis_uib_no/Documents/NAD-PARK/Cell_metabolism/Revision-2_after_acceptance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hvl365-my.sharepoint.com/personal/585090_stud_hvl_no/Documents/Masteroppgave/Kode/parkinsonbayes/data/nadpark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5920782C-FFA2-48E3-BD04-EBDFFDD513B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{5920782C-FFA2-48E3-BD04-EBDFFDD513B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B75A6C03-5A5B-48FD-BD7B-54E6ABF959BE}"/>
   <bookViews>
-    <workbookView xWindow="23520" yWindow="30" windowWidth="30675" windowHeight="20685" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="157">
   <si>
     <r>
       <t>Figure 1D: Relative total NAD levels normalized to ATP-</t>
@@ -659,6 +659,9 @@
   <si>
     <t>Supplementary Figure S5A: Deconvolution of immune cell types. Related to STAR METHODS – RNA Sequencing</t>
   </si>
+  <si>
+    <t>visit.ratio</t>
+  </si>
 </sst>
 </file>
 
@@ -1033,7 +1036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1143,34 +1146,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1186,21 +1170,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1211,13 +1185,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1231,6 +1207,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1283,28 +1262,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1313,22 +1298,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1339,12 +1309,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1369,9 +1333,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1409,9 +1373,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1444,26 +1408,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1496,26 +1443,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1689,54 +1619,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E31"/>
+  <dimension ref="B2:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" style="58" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="58" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="49" customWidth="1"/>
     <col min="4" max="5" width="20.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="72"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
+      <c r="E3" s="61"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="47" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3">
@@ -1745,12 +1679,16 @@
       <c r="E5" s="3">
         <v>0.4326197</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="57" t="s">
+      <c r="F5">
+        <f>D5/E5</f>
+        <v>0.70552150075458886</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="47" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3">
@@ -1759,12 +1697,16 @@
       <c r="E6" s="3">
         <v>0.12742249999999999</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="57" t="s">
+      <c r="F6">
+        <f t="shared" ref="F6:F31" si="0">D6/E6</f>
+        <v>2.4020483038709806</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="47" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3">
@@ -1773,12 +1715,16 @@
       <c r="E7" s="3">
         <v>0.25536759999999997</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="57" t="s">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.94599393188485936</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="47" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3">
@@ -1787,12 +1733,16 @@
       <c r="E8" s="3">
         <v>0.25020120000000001</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="57" t="s">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1.0071802213578511</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="47" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3">
@@ -1801,12 +1751,16 @@
       <c r="E9" s="3">
         <v>0.60721219999999998</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="57" t="s">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1.0516035415625709</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="47" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3">
@@ -1815,12 +1769,16 @@
       <c r="E10" s="3">
         <v>0.4647715</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="57" t="s">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1.0357319672139966</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="47" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3">
@@ -1829,12 +1787,16 @@
       <c r="E11" s="3">
         <v>0.38053769999999998</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="57" t="s">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1.0153101782031058</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="47" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3">
@@ -1843,12 +1805,16 @@
       <c r="E12" s="3">
         <v>0.1587538</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="57" t="s">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1.3825143083189189</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="47" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="3">
@@ -1857,12 +1823,16 @@
       <c r="E13" s="3">
         <v>0.22280349999999999</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="57" t="s">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1.5347442926165882</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="47" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="3">
@@ -1871,12 +1841,16 @@
       <c r="E14" s="3">
         <v>0.351962</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="57" t="s">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.68809331689216446</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="47" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="3">
@@ -1885,12 +1859,16 @@
       <c r="E15" s="3">
         <v>0.28075850000000002</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="57" t="s">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.81666307520520298</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="47" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="3">
@@ -1899,12 +1877,16 @@
       <c r="E16" s="3">
         <v>0.21698980000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="57" t="s">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1.0119848951425365</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="47" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="3">
@@ -1913,12 +1895,16 @@
       <c r="E17" s="3">
         <v>0.21753140000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="57" t="s">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1.0880829158457124</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="47" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3">
@@ -1927,12 +1913,16 @@
       <c r="E18" s="3">
         <v>0.22621910000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="57" t="s">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.83840312334369638</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="48" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="3">
@@ -1941,12 +1931,16 @@
       <c r="E19" s="3">
         <v>0.18809429999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="57" t="s">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1.4934551445737592</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="48" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="3">
@@ -1955,13 +1949,16 @@
       <c r="E20" s="3">
         <v>0.30869970000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="57" t="s">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.64777387214823978</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="48" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="3">
@@ -1970,12 +1967,16 @@
       <c r="E21" s="3">
         <v>0.33454040000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="57" t="s">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.69686082757119916</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="48" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="3">
@@ -1984,12 +1985,16 @@
       <c r="E22" s="3">
         <v>0.5617335</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="57" t="s">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.54207039459102946</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="48" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="3">
@@ -1998,12 +2003,16 @@
       <c r="E23" s="3">
         <v>0.35785289999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="57" t="s">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.87154973454176299</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="48" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="3">
@@ -2012,12 +2021,16 @@
       <c r="E24" s="3">
         <v>0.42068840000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="57" t="s">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.7437956454230733</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="48" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="3">
@@ -2026,12 +2039,16 @@
       <c r="E25" s="3">
         <v>0.34709190000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="57" t="s">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.67673921517615365</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="48" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="3">
@@ -2040,12 +2057,16 @@
       <c r="E26" s="3">
         <v>0.50193779999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="57" t="s">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0.48699440448597414</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="48" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="3">
@@ -2054,12 +2075,16 @@
       <c r="E27" s="3">
         <v>0.34204390000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="57" t="s">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0.98460490013124047</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="48" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="3">
@@ -2068,12 +2093,16 @@
       <c r="E28" s="3">
         <v>0.38342680000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="57" t="s">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0.87090234694079804</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="48" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="3">
@@ -2082,12 +2111,16 @@
       <c r="E29" s="3">
         <v>0.37562909999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="57" t="s">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0.79805584817576702</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="48" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="3">
@@ -2096,12 +2129,16 @@
       <c r="E30" s="3">
         <v>0.32562190000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="57" t="s">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1.107977995337537</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="48" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="3">
@@ -2109,6 +2146,10 @@
       </c>
       <c r="E31" s="3">
         <v>0.3143552</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.94416379942180051</v>
       </c>
     </row>
   </sheetData>
@@ -2128,7 +2169,7 @@
       <selection activeCell="V46" sqref="V46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="9.140625" style="5"/>
     <col min="6" max="12" width="10.7109375" style="5" customWidth="1"/>
@@ -2150,45 +2191,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
       <c r="F2"/>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="83" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="N2" s="84"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="R2" s="87" t="s">
+      <c r="N2" s="74"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="R2" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Z2" s="80" t="s">
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Z2" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="82"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="72"/>
       <c r="AG2" s="19"/>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.25">
@@ -2202,26 +2243,26 @@
         <v>6</v>
       </c>
       <c r="F3"/>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="69" t="s">
+      <c r="H3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="I3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="53" t="s">
+      <c r="M3"/>
+      <c r="N3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="68" t="s">
+      <c r="O3" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="52" t="s">
+      <c r="P3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="S3" s="10" t="s">
@@ -2246,7 +2287,7 @@
       </c>
     </row>
     <row r="4" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="66" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -2259,22 +2300,22 @@
         <v>-2.548</v>
       </c>
       <c r="F4"/>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="14">
         <v>-0.84599999999999997</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="14">
         <v>-0.20100000000000001</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
-      <c r="M4" s="85" t="s">
+      <c r="M4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="53" t="s">
         <v>22</v>
       </c>
       <c r="O4" s="13">
@@ -2283,7 +2324,7 @@
       <c r="P4" s="13">
         <v>-3</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="76" t="s">
         <v>41</v>
       </c>
       <c r="S4" s="7" t="s">
@@ -2297,7 +2338,7 @@
       </c>
       <c r="V4"/>
       <c r="W4"/>
-      <c r="Z4" s="79" t="s">
+      <c r="Z4" s="69" t="s">
         <v>41</v>
       </c>
       <c r="AA4" s="2" t="s">
@@ -2311,7 +2352,7 @@
       </c>
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B5" s="77"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2322,20 +2363,20 @@
         <v>1.48</v>
       </c>
       <c r="F5"/>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="14">
         <v>1.2729999999999999</v>
       </c>
-      <c r="I5" s="65">
+      <c r="I5" s="14">
         <v>2.3849999999999998</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="67" t="s">
+      <c r="M5" s="75"/>
+      <c r="N5" s="54" t="s">
         <v>42</v>
       </c>
       <c r="O5" s="12">
@@ -2344,7 +2385,7 @@
       <c r="P5" s="12">
         <v>-6</v>
       </c>
-      <c r="R5" s="86"/>
+      <c r="R5" s="76"/>
       <c r="S5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2356,7 +2397,7 @@
       </c>
       <c r="V5"/>
       <c r="W5"/>
-      <c r="Z5" s="79"/>
+      <c r="Z5" s="69"/>
       <c r="AA5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2368,7 +2409,7 @@
       </c>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B6" s="77"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2379,20 +2420,20 @@
         <v>-6.0890000000000004</v>
       </c>
       <c r="F6"/>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="14">
         <v>-0.155</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="14">
         <v>-0.27300000000000002</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="67" t="s">
+      <c r="M6" s="75"/>
+      <c r="N6" s="54" t="s">
         <v>23</v>
       </c>
       <c r="O6" s="12">
@@ -2401,7 +2442,7 @@
       <c r="P6" s="12">
         <v>-1</v>
       </c>
-      <c r="R6" s="86"/>
+      <c r="R6" s="76"/>
       <c r="S6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2413,7 +2454,7 @@
       </c>
       <c r="V6"/>
       <c r="W6"/>
-      <c r="Z6" s="79"/>
+      <c r="Z6" s="69"/>
       <c r="AA6" s="2" t="s">
         <v>9</v>
       </c>
@@ -2425,7 +2466,7 @@
       </c>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B7" s="77"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
@@ -2436,20 +2477,20 @@
         <v>-2.0739999999999998</v>
       </c>
       <c r="F7"/>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="14">
         <v>-2.3090000000000002</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="14">
         <v>-1.504</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="67" t="s">
+      <c r="M7" s="75"/>
+      <c r="N7" s="54" t="s">
         <v>24</v>
       </c>
       <c r="O7" s="12">
@@ -2458,7 +2499,7 @@
       <c r="P7" s="12">
         <v>3</v>
       </c>
-      <c r="R7" s="86"/>
+      <c r="R7" s="76"/>
       <c r="S7" s="7" t="s">
         <v>10</v>
       </c>
@@ -2470,7 +2511,7 @@
       </c>
       <c r="V7"/>
       <c r="W7"/>
-      <c r="Z7" s="79"/>
+      <c r="Z7" s="69"/>
       <c r="AA7" s="2" t="s">
         <v>10</v>
       </c>
@@ -2482,7 +2523,7 @@
       </c>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B8" s="77"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
@@ -2493,20 +2534,20 @@
         <v>-1.2789999999999999</v>
       </c>
       <c r="F8"/>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="14">
         <v>-0.57199999999999995</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="14">
         <v>-1.0329999999999999</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="67" t="s">
+      <c r="M8" s="75"/>
+      <c r="N8" s="54" t="s">
         <v>25</v>
       </c>
       <c r="O8" s="12">
@@ -2515,7 +2556,7 @@
       <c r="P8" s="12">
         <v>2</v>
       </c>
-      <c r="R8" s="86"/>
+      <c r="R8" s="76"/>
       <c r="S8" s="7" t="s">
         <v>11</v>
       </c>
@@ -2527,7 +2568,7 @@
       </c>
       <c r="V8"/>
       <c r="W8"/>
-      <c r="Z8" s="79"/>
+      <c r="Z8" s="69"/>
       <c r="AA8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2539,7 +2580,7 @@
       </c>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B9" s="77"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
@@ -2550,20 +2591,20 @@
         <v>-0.375</v>
       </c>
       <c r="F9"/>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="65">
+      <c r="H9" s="14">
         <v>-1.0620000000000001</v>
       </c>
-      <c r="I9" s="65">
+      <c r="I9" s="14">
         <v>-0.60099999999999998</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="67" t="s">
+      <c r="M9" s="75"/>
+      <c r="N9" s="54" t="s">
         <v>26</v>
       </c>
       <c r="O9" s="12">
@@ -2572,7 +2613,7 @@
       <c r="P9" s="12">
         <v>0</v>
       </c>
-      <c r="R9" s="86"/>
+      <c r="R9" s="76"/>
       <c r="S9" s="7" t="s">
         <v>12</v>
       </c>
@@ -2584,7 +2625,7 @@
       </c>
       <c r="V9"/>
       <c r="W9"/>
-      <c r="Z9" s="79"/>
+      <c r="Z9" s="69"/>
       <c r="AA9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2596,7 +2637,7 @@
       </c>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B10" s="77"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2607,20 +2648,20 @@
         <v>-1.5</v>
       </c>
       <c r="F10"/>
-      <c r="G10" s="71" t="s">
+      <c r="G10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="65">
+      <c r="H10" s="14">
         <v>-4.282</v>
       </c>
-      <c r="I10" s="65">
+      <c r="I10" s="14">
         <v>-1.615</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="67" t="s">
+      <c r="M10" s="75"/>
+      <c r="N10" s="54" t="s">
         <v>27</v>
       </c>
       <c r="O10" s="12">
@@ -2629,7 +2670,7 @@
       <c r="P10" s="12">
         <v>-4</v>
       </c>
-      <c r="R10" s="86"/>
+      <c r="R10" s="76"/>
       <c r="S10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2641,7 +2682,7 @@
       </c>
       <c r="V10"/>
       <c r="W10"/>
-      <c r="Z10" s="79"/>
+      <c r="Z10" s="69"/>
       <c r="AA10" s="2" t="s">
         <v>13</v>
       </c>
@@ -2653,7 +2694,7 @@
       </c>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B11" s="77"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="7" t="s">
         <v>43</v>
       </c>
@@ -2664,20 +2705,20 @@
         <v>-0.36099999999999999</v>
       </c>
       <c r="F11"/>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="65">
+      <c r="H11" s="14">
         <v>-0.87</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="14">
         <v>-0.40600000000000003</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="67" t="s">
+      <c r="M11" s="75"/>
+      <c r="N11" s="54" t="s">
         <v>29</v>
       </c>
       <c r="O11" s="12">
@@ -2686,7 +2727,7 @@
       <c r="P11" s="12">
         <v>-2</v>
       </c>
-      <c r="R11" s="86"/>
+      <c r="R11" s="76"/>
       <c r="S11" s="7" t="s">
         <v>43</v>
       </c>
@@ -2698,7 +2739,7 @@
       </c>
       <c r="V11"/>
       <c r="W11"/>
-      <c r="Z11" s="79"/>
+      <c r="Z11" s="69"/>
       <c r="AA11" s="2" t="s">
         <v>43</v>
       </c>
@@ -2710,7 +2751,7 @@
       </c>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B12" s="77"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2721,20 +2762,20 @@
         <v>-1.0960000000000001</v>
       </c>
       <c r="F12"/>
-      <c r="G12" s="71" t="s">
+      <c r="G12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="65">
+      <c r="H12" s="14">
         <v>0.53900000000000003</v>
       </c>
-      <c r="I12" s="65">
+      <c r="I12" s="14">
         <v>1.601</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="67" t="s">
+      <c r="M12" s="75"/>
+      <c r="N12" s="54" t="s">
         <v>30</v>
       </c>
       <c r="O12" s="12">
@@ -2743,7 +2784,7 @@
       <c r="P12" s="12">
         <v>-1</v>
       </c>
-      <c r="R12" s="86"/>
+      <c r="R12" s="76"/>
       <c r="S12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2755,7 +2796,7 @@
       </c>
       <c r="V12"/>
       <c r="W12"/>
-      <c r="Z12" s="79"/>
+      <c r="Z12" s="69"/>
       <c r="AA12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2767,7 +2808,7 @@
       </c>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B13" s="77"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="7" t="s">
         <v>15</v>
       </c>
@@ -2778,20 +2819,20 @@
         <v>1.393</v>
       </c>
       <c r="F13"/>
-      <c r="G13" s="71" t="s">
+      <c r="G13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="65">
+      <c r="H13" s="14">
         <v>0.70499999999999996</v>
       </c>
-      <c r="I13" s="65">
+      <c r="I13" s="14">
         <v>0.877</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="67" t="s">
+      <c r="M13" s="75"/>
+      <c r="N13" s="54" t="s">
         <v>32</v>
       </c>
       <c r="O13" s="12">
@@ -2800,7 +2841,7 @@
       <c r="P13" s="12">
         <v>3</v>
       </c>
-      <c r="R13" s="86"/>
+      <c r="R13" s="76"/>
       <c r="S13" s="7" t="s">
         <v>15</v>
       </c>
@@ -2812,7 +2853,7 @@
       </c>
       <c r="V13"/>
       <c r="W13"/>
-      <c r="Z13" s="79"/>
+      <c r="Z13" s="69"/>
       <c r="AA13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2824,7 +2865,7 @@
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B14" s="77"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="7" t="s">
         <v>16</v>
       </c>
@@ -2841,11 +2882,11 @@
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
+      <c r="M14"/>
+      <c r="N14"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
-      <c r="R14" s="86"/>
+      <c r="R14" s="76"/>
       <c r="S14" s="7" t="s">
         <v>16</v>
       </c>
@@ -2857,7 +2898,7 @@
       </c>
       <c r="V14"/>
       <c r="W14"/>
-      <c r="Z14" s="79"/>
+      <c r="Z14" s="69"/>
       <c r="AA14" s="2" t="s">
         <v>16</v>
       </c>
@@ -2869,7 +2910,7 @@
       </c>
     </row>
     <row r="15" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="77"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="7" t="s">
         <v>17</v>
       </c>
@@ -2886,10 +2927,10 @@
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
-      <c r="M15" s="79" t="s">
+      <c r="M15" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="41" t="s">
+      <c r="N15" s="9" t="s">
         <v>45</v>
       </c>
       <c r="O15" s="12">
@@ -2898,7 +2939,7 @@
       <c r="P15" s="12">
         <v>10</v>
       </c>
-      <c r="R15" s="86"/>
+      <c r="R15" s="76"/>
       <c r="S15" s="7" t="s">
         <v>17</v>
       </c>
@@ -2910,7 +2951,7 @@
       </c>
       <c r="V15"/>
       <c r="W15"/>
-      <c r="Z15" s="79"/>
+      <c r="Z15" s="69"/>
       <c r="AA15" s="2" t="s">
         <v>17</v>
       </c>
@@ -2922,7 +2963,7 @@
       </c>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B16" s="77"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="7" t="s">
         <v>18</v>
       </c>
@@ -2939,8 +2980,8 @@
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="41" t="s">
+      <c r="M16" s="69"/>
+      <c r="N16" s="9" t="s">
         <v>21</v>
       </c>
       <c r="O16" s="12">
@@ -2949,7 +2990,7 @@
       <c r="P16" s="12">
         <v>3</v>
       </c>
-      <c r="R16" s="86"/>
+      <c r="R16" s="76"/>
       <c r="S16" s="7" t="s">
         <v>18</v>
       </c>
@@ -2961,7 +3002,7 @@
       </c>
       <c r="V16"/>
       <c r="W16"/>
-      <c r="Z16" s="79"/>
+      <c r="Z16" s="69"/>
       <c r="AA16" s="2" t="s">
         <v>18</v>
       </c>
@@ -2973,7 +3014,7 @@
       </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B17" s="77"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
@@ -2990,8 +3031,8 @@
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="41" t="s">
+      <c r="M17" s="69"/>
+      <c r="N17" s="9" t="s">
         <v>46</v>
       </c>
       <c r="O17" s="12">
@@ -3000,7 +3041,7 @@
       <c r="P17" s="12">
         <v>-2</v>
       </c>
-      <c r="R17" s="86"/>
+      <c r="R17" s="76"/>
       <c r="S17" s="7" t="s">
         <v>19</v>
       </c>
@@ -3012,7 +3053,7 @@
       </c>
       <c r="V17"/>
       <c r="W17"/>
-      <c r="Z17" s="79"/>
+      <c r="Z17" s="69"/>
       <c r="AA17" s="2" t="s">
         <v>19</v>
       </c>
@@ -3024,7 +3065,7 @@
       </c>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B18" s="77"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="7" t="s">
         <v>20</v>
       </c>
@@ -3041,8 +3082,8 @@
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="41" t="s">
+      <c r="M18" s="69"/>
+      <c r="N18" s="9" t="s">
         <v>47</v>
       </c>
       <c r="O18" s="12">
@@ -3051,7 +3092,7 @@
       <c r="P18" s="12">
         <v>-2</v>
       </c>
-      <c r="R18" s="86"/>
+      <c r="R18" s="76"/>
       <c r="S18" s="7" t="s">
         <v>20</v>
       </c>
@@ -3063,7 +3104,7 @@
       </c>
       <c r="V18"/>
       <c r="W18"/>
-      <c r="Z18" s="79"/>
+      <c r="Z18" s="69"/>
       <c r="AA18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3075,7 +3116,7 @@
       </c>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B19" s="78"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="16" t="s">
         <v>144</v>
       </c>
@@ -3118,7 +3159,7 @@
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
-      <c r="R20" s="79" t="s">
+      <c r="R20" s="69" t="s">
         <v>3</v>
       </c>
       <c r="S20" s="7" t="s">
@@ -3132,7 +3173,7 @@
       </c>
       <c r="V20"/>
       <c r="W20"/>
-      <c r="Z20" s="79" t="s">
+      <c r="Z20" s="69" t="s">
         <v>3</v>
       </c>
       <c r="AA20" s="2" t="s">
@@ -3146,7 +3187,7 @@
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="69" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -3158,17 +3199,15 @@
       <c r="E21" s="14">
         <v>-2.1960000000000002</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="45"/>
-      <c r="R21" s="79"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="O21" s="43"/>
+      <c r="R21" s="69"/>
       <c r="S21" s="7" t="s">
         <v>21</v>
       </c>
@@ -3180,7 +3219,7 @@
       </c>
       <c r="V21"/>
       <c r="W21"/>
-      <c r="Z21" s="79"/>
+      <c r="Z21" s="69"/>
       <c r="AA21" s="2" t="s">
         <v>21</v>
       </c>
@@ -3192,7 +3231,7 @@
       </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B22" s="79"/>
+      <c r="B22" s="69"/>
       <c r="C22" s="7" t="s">
         <v>21</v>
       </c>
@@ -3202,17 +3241,17 @@
       <c r="E22" s="14">
         <v>-0.51800000000000002</v>
       </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="49"/>
-      <c r="R22" s="79"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="43"/>
+      <c r="R22" s="69"/>
       <c r="S22" s="7" t="s">
         <v>22</v>
       </c>
@@ -3224,7 +3263,7 @@
       </c>
       <c r="V22"/>
       <c r="W22"/>
-      <c r="Z22" s="79"/>
+      <c r="Z22" s="69"/>
       <c r="AA22" s="2" t="s">
         <v>22</v>
       </c>
@@ -3236,7 +3275,7 @@
       </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B23" s="79"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="7" t="s">
         <v>22</v>
       </c>
@@ -3246,17 +3285,16 @@
       <c r="E23" s="14">
         <v>-0.20100000000000001</v>
       </c>
-      <c r="F23" s="43"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="50"/>
-      <c r="R23" s="79"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="R23" s="69"/>
       <c r="S23" s="7" t="s">
         <v>42</v>
       </c>
@@ -3268,7 +3306,7 @@
       </c>
       <c r="V23"/>
       <c r="W23"/>
-      <c r="Z23" s="79"/>
+      <c r="Z23" s="69"/>
       <c r="AA23" s="2" t="s">
         <v>42</v>
       </c>
@@ -3280,7 +3318,7 @@
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B24" s="79"/>
+      <c r="B24" s="69"/>
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
@@ -3290,17 +3328,17 @@
       <c r="E24" s="14">
         <v>2.3849999999999998</v>
       </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="49"/>
-      <c r="R24" s="79"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="43"/>
+      <c r="R24" s="69"/>
       <c r="S24" s="7" t="s">
         <v>23</v>
       </c>
@@ -3312,7 +3350,7 @@
       </c>
       <c r="V24"/>
       <c r="W24"/>
-      <c r="Z24" s="79"/>
+      <c r="Z24" s="69"/>
       <c r="AA24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3324,7 +3362,7 @@
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B25" s="79"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="7" t="s">
         <v>23</v>
       </c>
@@ -3334,17 +3372,17 @@
       <c r="E25" s="14">
         <v>-0.27300000000000002</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="49"/>
-      <c r="R25" s="79"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="43"/>
+      <c r="R25" s="69"/>
       <c r="S25" s="7" t="s">
         <v>46</v>
       </c>
@@ -3356,7 +3394,7 @@
       </c>
       <c r="V25"/>
       <c r="W25"/>
-      <c r="Z25" s="79"/>
+      <c r="Z25" s="69"/>
       <c r="AA25" s="2" t="s">
         <v>46</v>
       </c>
@@ -3368,7 +3406,7 @@
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B26" s="79"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="7" t="s">
         <v>46</v>
       </c>
@@ -3378,17 +3416,15 @@
       <c r="E26" s="14">
         <v>0.157</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="49"/>
-      <c r="R26" s="79"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="O26" s="43"/>
+      <c r="R26" s="69"/>
       <c r="S26" s="7" t="s">
         <v>24</v>
       </c>
@@ -3400,7 +3436,7 @@
       </c>
       <c r="V26"/>
       <c r="W26"/>
-      <c r="Z26" s="79"/>
+      <c r="Z26" s="69"/>
       <c r="AA26" s="2" t="s">
         <v>24</v>
       </c>
@@ -3412,7 +3448,7 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B27" s="79"/>
+      <c r="B27" s="69"/>
       <c r="C27" s="7" t="s">
         <v>24</v>
       </c>
@@ -3422,17 +3458,17 @@
       <c r="E27" s="14">
         <v>-1.504</v>
       </c>
-      <c r="F27" s="43"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="49"/>
-      <c r="R27" s="79"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="43"/>
+      <c r="R27" s="69"/>
       <c r="S27" s="7" t="s">
         <v>25</v>
       </c>
@@ -3444,7 +3480,7 @@
       </c>
       <c r="V27"/>
       <c r="W27"/>
-      <c r="Z27" s="79"/>
+      <c r="Z27" s="69"/>
       <c r="AA27" s="2" t="s">
         <v>25</v>
       </c>
@@ -3456,7 +3492,7 @@
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B28" s="79"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="7" t="s">
         <v>25</v>
       </c>
@@ -3466,17 +3502,17 @@
       <c r="E28" s="14">
         <v>-1.0329999999999999</v>
       </c>
-      <c r="F28" s="43"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="49"/>
-      <c r="R28" s="79"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="43"/>
+      <c r="R28" s="69"/>
       <c r="S28" s="7" t="s">
         <v>26</v>
       </c>
@@ -3488,7 +3524,7 @@
       </c>
       <c r="V28"/>
       <c r="W28"/>
-      <c r="Z28" s="79"/>
+      <c r="Z28" s="69"/>
       <c r="AA28" s="2" t="s">
         <v>26</v>
       </c>
@@ -3500,7 +3536,7 @@
       </c>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B29" s="79"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="7" t="s">
         <v>26</v>
       </c>
@@ -3510,17 +3546,17 @@
       <c r="E29" s="14">
         <v>-0.60099999999999998</v>
       </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="49"/>
-      <c r="R29" s="79"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="43"/>
+      <c r="R29" s="69"/>
       <c r="S29" s="7" t="s">
         <v>27</v>
       </c>
@@ -3532,7 +3568,7 @@
       </c>
       <c r="V29"/>
       <c r="W29"/>
-      <c r="Z29" s="79"/>
+      <c r="Z29" s="69"/>
       <c r="AA29" s="2" t="s">
         <v>27</v>
       </c>
@@ -3544,7 +3580,7 @@
       </c>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B30" s="79"/>
+      <c r="B30" s="69"/>
       <c r="C30" s="7" t="s">
         <v>27</v>
       </c>
@@ -3554,17 +3590,16 @@
       <c r="E30" s="14">
         <v>-1.615</v>
       </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="50"/>
-      <c r="R30" s="79"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="R30" s="69"/>
       <c r="S30" s="7" t="s">
         <v>29</v>
       </c>
@@ -3576,7 +3611,7 @@
       </c>
       <c r="V30"/>
       <c r="W30"/>
-      <c r="Z30" s="79"/>
+      <c r="Z30" s="69"/>
       <c r="AA30" s="2" t="s">
         <v>29</v>
       </c>
@@ -3588,7 +3623,7 @@
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B31" s="79"/>
+      <c r="B31" s="69"/>
       <c r="C31" s="7" t="s">
         <v>29</v>
       </c>
@@ -3598,17 +3633,17 @@
       <c r="E31" s="14">
         <v>-0.40600000000000003</v>
       </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="49"/>
-      <c r="R31" s="79"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="43"/>
+      <c r="R31" s="69"/>
       <c r="S31" s="7" t="s">
         <v>30</v>
       </c>
@@ -3620,7 +3655,7 @@
       </c>
       <c r="V31"/>
       <c r="W31"/>
-      <c r="Z31" s="79"/>
+      <c r="Z31" s="69"/>
       <c r="AA31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3632,7 +3667,7 @@
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B32" s="79"/>
+      <c r="B32" s="69"/>
       <c r="C32" s="7" t="s">
         <v>30</v>
       </c>
@@ -3642,17 +3677,17 @@
       <c r="E32" s="14">
         <v>1.601</v>
       </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="49"/>
-      <c r="R32" s="79"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="43"/>
+      <c r="R32" s="69"/>
       <c r="S32" s="7" t="s">
         <v>31</v>
       </c>
@@ -3664,7 +3699,7 @@
       </c>
       <c r="V32"/>
       <c r="W32"/>
-      <c r="Z32" s="79"/>
+      <c r="Z32" s="69"/>
       <c r="AA32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3676,7 +3711,7 @@
       </c>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B33" s="79"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="7" t="s">
         <v>31</v>
       </c>
@@ -3686,17 +3721,17 @@
       <c r="E33" s="14">
         <v>-1.837</v>
       </c>
-      <c r="F33" s="47"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="49"/>
-      <c r="R33" s="79"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="43"/>
+      <c r="R33" s="69"/>
       <c r="S33" s="7" t="s">
         <v>32</v>
       </c>
@@ -3708,7 +3743,7 @@
       </c>
       <c r="V33"/>
       <c r="W33"/>
-      <c r="Z33" s="79"/>
+      <c r="Z33" s="69"/>
       <c r="AA33" s="2" t="s">
         <v>32</v>
       </c>
@@ -3720,7 +3755,7 @@
       </c>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B34" s="79"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="7" t="s">
         <v>32</v>
       </c>
@@ -3730,23 +3765,23 @@
       <c r="E34" s="14">
         <v>0.877</v>
       </c>
-      <c r="F34" s="43"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="49"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="43"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="V34"/>
       <c r="W34"/>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B35" s="79"/>
+      <c r="B35" s="69"/>
       <c r="C35" s="16" t="s">
         <v>144</v>
       </c>
@@ -3758,44 +3793,24 @@
         <f>AVERAGE(E21:E34)</f>
         <v>-0.36885714285714288</v>
       </c>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="50"/>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D36"/>
       <c r="E36"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="50"/>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D37"/>
       <c r="E37"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="51"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="U37"/>
       <c r="V37"/>
@@ -3804,16 +3819,16 @@
     <row r="38" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D38"/>
       <c r="E38"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="48"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38" s="45"/>
       <c r="P38" s="5"/>
       <c r="U38"/>
       <c r="V38"/>
@@ -3822,16 +3837,16 @@
     <row r="39" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D39"/>
       <c r="E39"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="44"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="U39"/>
       <c r="V39"/>
@@ -3883,10 +3898,7 @@
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
-      <c r="R42" s="104"/>
-      <c r="S42" s="104"/>
-      <c r="T42" s="104"/>
-      <c r="U42" s="104"/>
+      <c r="U42"/>
       <c r="V42"/>
       <c r="W42"/>
     </row>
@@ -4431,1692 +4443,1668 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="15" max="15" width="10.28515625" customWidth="1"/>
     <col min="16" max="16" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="88" t="s">
+      <c r="F2" s="80"/>
+      <c r="G2" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88" t="s">
+      <c r="H2" s="78"/>
+      <c r="I2" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88" t="s">
+      <c r="J2" s="78"/>
+      <c r="K2" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89" t="s">
+      <c r="L2" s="78"/>
+      <c r="M2" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="90"/>
-      <c r="O2" s="89" t="s">
+      <c r="N2" s="80"/>
+      <c r="O2" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="89" t="s">
+      <c r="P2" s="80"/>
+      <c r="Q2" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="90"/>
+      <c r="R2" s="80"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="59" t="s">
+      <c r="M3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="59" t="s">
+      <c r="N3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="59" t="s">
+      <c r="O3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="59" t="s">
+      <c r="P3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="59" t="s">
+      <c r="Q3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="59" t="s">
+      <c r="R3" s="50" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="1">
         <v>9.2149999999999996E-2</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="1">
         <v>4.9630000000000001E-2</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4">
         <v>3.4340000000000002E-2</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4">
         <v>2.9680000000000002E-2</v>
       </c>
-      <c r="G4" s="61">
+      <c r="G4">
         <v>2.4935700000000001</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4">
         <v>4.5557100000000004</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4">
         <v>0.18304999999999999</v>
       </c>
-      <c r="J4" s="61">
+      <c r="J4">
         <v>0.10818999999999999</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4">
         <v>0.45579999999999998</v>
       </c>
-      <c r="L4" s="61">
+      <c r="L4">
         <v>0.37269999999999998</v>
       </c>
-      <c r="M4" s="61">
+      <c r="M4">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="N4" s="61">
+      <c r="N4">
         <v>6.2729999999999994E-2</v>
       </c>
-      <c r="O4" s="61">
+      <c r="O4">
         <v>3.9100000000000003E-3</v>
       </c>
-      <c r="P4" s="61">
+      <c r="P4">
         <v>3.7699999999999999E-3</v>
       </c>
-      <c r="Q4" s="61">
+      <c r="Q4">
         <v>1.640194E-2</v>
       </c>
-      <c r="R4" s="61">
+      <c r="R4">
         <v>3.4230709999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="1">
         <v>0.10018000000000001</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="1">
         <v>0.12373000000000001</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5">
         <v>1.592E-2</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5">
         <v>2.4129999999999999E-2</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5">
         <v>2.4746100000000002</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5">
         <v>2.20648</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5">
         <v>0.71394999999999997</v>
       </c>
-      <c r="J5" s="61">
+      <c r="J5">
         <v>0.36658000000000002</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5">
         <v>1.2986</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5">
         <v>1.5455000000000001</v>
       </c>
-      <c r="M5" s="61">
+      <c r="M5">
         <v>0.17144000000000001</v>
       </c>
-      <c r="N5" s="61">
+      <c r="N5">
         <v>0.18195</v>
       </c>
-      <c r="O5" s="61">
+      <c r="O5">
         <v>1.9609999999999999E-2</v>
       </c>
-      <c r="P5" s="61">
+      <c r="P5">
         <v>2.3820000000000001E-2</v>
       </c>
-      <c r="Q5" s="61">
+      <c r="Q5">
         <v>1.001417</v>
       </c>
-      <c r="R5" s="61">
+      <c r="R5">
         <v>0.57233160000000005</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="81"/>
+      <c r="B6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="1">
         <v>8.5779999999999995E-2</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="1">
         <v>0.10806</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6">
         <v>3.5380000000000002E-2</v>
       </c>
-      <c r="F6" s="61">
+      <c r="F6">
         <v>1.8329999999999999E-2</v>
       </c>
-      <c r="G6" s="61">
+      <c r="G6">
         <v>2.57457</v>
       </c>
-      <c r="H6" s="61">
+      <c r="H6">
         <v>5.4641500000000001</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I6">
         <v>0.17591999999999999</v>
       </c>
-      <c r="J6" s="61">
+      <c r="J6">
         <v>0.11019</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6">
         <v>0.76</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6">
         <v>0.87180000000000002</v>
       </c>
-      <c r="M6" s="61">
+      <c r="M6">
         <v>0.10328</v>
       </c>
-      <c r="N6" s="61">
+      <c r="N6">
         <v>0.13217999999999999</v>
       </c>
-      <c r="O6" s="61">
+      <c r="O6">
         <v>5.7600000000000004E-3</v>
       </c>
-      <c r="P6" s="61">
+      <c r="P6">
         <v>5.6800000000000002E-3</v>
       </c>
-      <c r="Q6" s="61">
+      <c r="Q6">
         <v>1.169055</v>
       </c>
-      <c r="R6" s="61">
+      <c r="R6">
         <v>6.1999699999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="81"/>
+      <c r="B7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="1">
         <v>0.15583</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="1">
         <v>0.15583</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7">
         <v>1.7420000000000001E-2</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7">
         <v>8.77E-3</v>
       </c>
-      <c r="G7" s="61">
+      <c r="G7">
         <v>1.0642199999999999</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7">
         <v>1.59501</v>
       </c>
-      <c r="I7" s="61">
+      <c r="I7">
         <v>0.31950000000000001</v>
       </c>
-      <c r="J7" s="61">
+      <c r="J7">
         <v>0.27535999999999999</v>
       </c>
-      <c r="K7" s="61">
+      <c r="K7">
         <v>1.4176</v>
       </c>
-      <c r="L7" s="61">
+      <c r="L7">
         <v>0.87760000000000005</v>
       </c>
-      <c r="M7" s="61">
+      <c r="M7">
         <v>0.21675</v>
       </c>
-      <c r="N7" s="61">
+      <c r="N7">
         <v>0.1082</v>
       </c>
-      <c r="O7" s="61">
+      <c r="O7">
         <v>1.7829999999999999E-2</v>
       </c>
-      <c r="P7" s="61">
+      <c r="P7">
         <v>1.306E-2</v>
       </c>
-      <c r="Q7" s="61">
+      <c r="Q7">
         <v>1.5448539999999999</v>
       </c>
-      <c r="R7" s="61">
+      <c r="R7">
         <v>1.2609189999999999</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="81"/>
+      <c r="B8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="1">
         <v>0.10513</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="1">
         <v>0.10867</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8">
         <v>1.737E-2</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8">
         <v>2.164E-2</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8">
         <v>1.24685</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8">
         <v>2.9723799999999998</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8">
         <v>0.22772999999999999</v>
       </c>
-      <c r="J8" s="61">
+      <c r="J8">
         <v>0.17598</v>
       </c>
-      <c r="K8" s="61">
+      <c r="K8">
         <v>1.7186999999999999</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8">
         <v>1.978</v>
       </c>
-      <c r="M8" s="61">
+      <c r="M8">
         <v>0.25685999999999998</v>
       </c>
-      <c r="N8" s="61">
+      <c r="N8">
         <v>0.26963999999999999</v>
       </c>
-      <c r="O8" s="61">
+      <c r="O8">
         <v>4.8799999999999998E-3</v>
       </c>
-      <c r="P8" s="61">
+      <c r="P8">
         <v>6.3E-3</v>
       </c>
-      <c r="Q8" s="61">
+      <c r="Q8">
         <v>0.1699338</v>
       </c>
-      <c r="R8" s="61">
+      <c r="R8">
         <v>0.13819119999999999</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="81"/>
+      <c r="B9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="1">
         <v>8.4089999999999998E-2</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="1">
         <v>5.4530000000000002E-2</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9">
         <v>4.8700000000000002E-3</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9">
         <v>1.2030000000000001E-2</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9">
         <v>1.7143900000000001</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9">
         <v>1.24638</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I9">
         <v>0.18472</v>
       </c>
-      <c r="J9" s="61">
+      <c r="J9">
         <v>0.15448999999999999</v>
       </c>
-      <c r="K9" s="61">
+      <c r="K9">
         <v>0.3327</v>
       </c>
-      <c r="L9" s="61">
+      <c r="L9">
         <v>0.4294</v>
       </c>
-      <c r="M9" s="61">
+      <c r="M9">
         <v>4.9630000000000001E-2</v>
       </c>
-      <c r="N9" s="61">
+      <c r="N9">
         <v>5.663E-2</v>
       </c>
-      <c r="O9" s="61">
+      <c r="O9">
         <v>4.7099999999999998E-3</v>
       </c>
-      <c r="P9" s="61">
+      <c r="P9">
         <v>5.3699999999999998E-3</v>
       </c>
-      <c r="Q9" s="61">
+      <c r="Q9">
         <v>2.0455399999999999E-2</v>
       </c>
-      <c r="R9" s="61">
+      <c r="R9">
         <v>6.1883920000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="81"/>
+      <c r="B10" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="1">
         <v>0.10739</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="1">
         <v>0.13642000000000001</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10">
         <v>3.2009999999999997E-2</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10">
         <v>2.3034500000000002</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10">
         <v>3.2280199999999999</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10">
         <v>0.19844999999999999</v>
       </c>
-      <c r="J10" s="61">
+      <c r="J10">
         <v>0.17507</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10">
         <v>0.65700000000000003</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L10">
         <v>1.0497000000000001</v>
       </c>
-      <c r="M10" s="61">
+      <c r="M10">
         <v>0.10681</v>
       </c>
-      <c r="N10" s="61">
+      <c r="N10">
         <v>0.16217000000000001</v>
       </c>
-      <c r="O10" s="61">
+      <c r="O10">
         <v>6.9100000000000003E-3</v>
       </c>
-      <c r="P10" s="61">
+      <c r="P10">
         <v>1.0109999999999999E-2</v>
       </c>
-      <c r="Q10" s="61">
+      <c r="Q10">
         <v>0.33466079999999998</v>
       </c>
-      <c r="R10" s="61">
+      <c r="R10">
         <v>0.42907440000000002</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="91"/>
-      <c r="B11" s="42" t="s">
+      <c r="A11" s="81"/>
+      <c r="B11" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="1">
         <v>0.14416999999999999</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="1">
         <v>8.5860000000000006E-2</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11">
         <v>2.0250000000000001E-2</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11">
         <v>1.50919</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H11">
         <v>2.3498999999999999</v>
       </c>
-      <c r="I11" s="61">
+      <c r="I11">
         <v>0.1711</v>
       </c>
-      <c r="J11" s="61">
+      <c r="J11">
         <v>0.14291999999999999</v>
       </c>
-      <c r="K11" s="61">
+      <c r="K11">
         <v>1.4319</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11">
         <v>1.3086</v>
       </c>
-      <c r="M11" s="61">
+      <c r="M11">
         <v>0.19838</v>
       </c>
-      <c r="N11" s="61">
+      <c r="N11">
         <v>0.17388000000000001</v>
       </c>
-      <c r="O11" s="61">
+      <c r="O11">
         <v>5.7099999999999998E-3</v>
       </c>
-      <c r="P11" s="61">
+      <c r="P11">
         <v>5.3800000000000002E-3</v>
       </c>
-      <c r="Q11" s="61">
+      <c r="Q11">
         <v>7.4344869999999993E-2</v>
       </c>
-      <c r="R11" s="61">
+      <c r="R11">
         <v>0.2218099</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
-      <c r="B12" s="42" t="s">
+      <c r="A12" s="81"/>
+      <c r="B12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="1">
         <v>9.7900000000000001E-2</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="1">
         <v>9.5259999999999997E-2</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12">
         <v>1.158E-2</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12">
         <v>4.9199999999999999E-3</v>
       </c>
-      <c r="G12" s="61">
+      <c r="G12">
         <v>1.23803</v>
       </c>
-      <c r="H12" s="61">
+      <c r="H12">
         <v>4.9238999999999997</v>
       </c>
-      <c r="I12" s="61">
+      <c r="I12">
         <v>0.23177</v>
       </c>
-      <c r="J12" s="61">
+      <c r="J12">
         <v>0.21054</v>
       </c>
-      <c r="K12" s="61">
+      <c r="K12">
         <v>0.69440000000000002</v>
       </c>
-      <c r="L12" s="61">
+      <c r="L12">
         <v>0.80820000000000003</v>
       </c>
-      <c r="M12" s="61">
+      <c r="M12">
         <v>9.6149999999999999E-2</v>
       </c>
-      <c r="N12" s="61">
+      <c r="N12">
         <v>0.10085</v>
       </c>
-      <c r="O12" s="61">
+      <c r="O12">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="P12" s="61">
+      <c r="P12">
         <v>6.1199999999999996E-3</v>
       </c>
-      <c r="Q12" s="61">
+      <c r="Q12">
         <v>1.515466</v>
       </c>
-      <c r="R12" s="61">
+      <c r="R12">
         <v>1.0603</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="91"/>
-      <c r="B13" s="42" t="s">
+      <c r="A13" s="81"/>
+      <c r="B13" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="60">
+      <c r="C13" s="1">
         <v>6.9250000000000006E-2</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="1">
         <v>8.1689999999999999E-2</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13">
         <v>3.0300000000000001E-3</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13">
         <v>1.899E-2</v>
       </c>
-      <c r="G13" s="61">
+      <c r="G13">
         <v>1.5589599999999999</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13">
         <v>2.6783999999999999</v>
       </c>
-      <c r="I13" s="61">
+      <c r="I13">
         <v>0.16564000000000001</v>
       </c>
-      <c r="J13" s="61">
+      <c r="J13">
         <v>0.14828</v>
       </c>
-      <c r="K13" s="61">
+      <c r="K13">
         <v>0.75480000000000003</v>
       </c>
-      <c r="L13" s="61">
+      <c r="L13">
         <v>0.78700000000000003</v>
       </c>
-      <c r="M13" s="61">
+      <c r="M13">
         <v>0.12002</v>
       </c>
-      <c r="N13" s="61">
+      <c r="N13">
         <v>0.14280000000000001</v>
       </c>
-      <c r="O13" s="61">
+      <c r="O13">
         <v>7.1799999999999998E-3</v>
       </c>
-      <c r="P13" s="61">
+      <c r="P13">
         <v>9.0100000000000006E-3</v>
       </c>
-      <c r="Q13" s="61">
+      <c r="Q13">
         <v>4.050525E-2</v>
       </c>
-      <c r="R13" s="61">
+      <c r="R13">
         <v>6.2581940000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="91"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="81"/>
+      <c r="B14" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="1">
         <v>0.10892</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="1">
         <v>8.7529999999999997E-2</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14">
         <v>2.4840000000000001E-2</v>
       </c>
-      <c r="F14" s="61">
+      <c r="F14">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61">
+      <c r="Q14">
         <v>0.115885</v>
       </c>
-      <c r="R14" s="61">
+      <c r="R14">
         <v>3.1369670000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
-      <c r="B15" s="42" t="s">
+      <c r="A15" s="81"/>
+      <c r="B15" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="1">
         <v>3.7960000000000001E-2</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15">
         <v>2.1090000000000001E-2</v>
       </c>
-      <c r="F15" s="61">
+      <c r="F15">
         <v>1.171E-2</v>
       </c>
-      <c r="G15" s="61">
+      <c r="G15">
         <v>1.41483</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15">
         <v>3.3969499999999999</v>
       </c>
-      <c r="I15" s="61">
+      <c r="I15">
         <v>0.19505</v>
       </c>
-      <c r="J15" s="61">
+      <c r="J15">
         <v>0.28938999999999998</v>
       </c>
-      <c r="K15" s="61">
+      <c r="K15">
         <v>0.60560000000000003</v>
       </c>
-      <c r="L15" s="61">
+      <c r="L15">
         <v>0.61109999999999998</v>
       </c>
-      <c r="M15" s="61">
+      <c r="M15">
         <v>0.10964</v>
       </c>
-      <c r="N15" s="61">
+      <c r="N15">
         <v>0.10102</v>
       </c>
-      <c r="O15" s="61">
+      <c r="O15">
         <v>4.3200000000000001E-3</v>
       </c>
-      <c r="P15" s="61">
+      <c r="P15">
         <v>5.3800000000000002E-3</v>
       </c>
-      <c r="Q15" s="61">
+      <c r="Q15">
         <v>0.95307750000000002</v>
       </c>
-      <c r="R15" s="61">
+      <c r="R15">
         <v>0.3387541</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
-      <c r="B16" s="42" t="s">
+      <c r="A16" s="81"/>
+      <c r="B16" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="1">
         <v>0.22775000000000001</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="1">
         <v>0.23871000000000001</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16">
         <v>1.55E-2</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16">
         <v>1.0869999999999999E-2</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G16">
         <v>1.6982299999999999</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16">
         <v>3.8769300000000002</v>
       </c>
-      <c r="I16" s="61">
+      <c r="I16">
         <v>0.46134999999999998</v>
       </c>
-      <c r="J16" s="61">
+      <c r="J16">
         <v>0.29488999999999999</v>
       </c>
-      <c r="K16" s="61">
+      <c r="K16">
         <v>1.1036999999999999</v>
       </c>
-      <c r="L16" s="61">
+      <c r="L16">
         <v>1.3767</v>
       </c>
-      <c r="M16" s="61">
+      <c r="M16">
         <v>0.18890000000000001</v>
       </c>
-      <c r="N16" s="61">
+      <c r="N16">
         <v>0.20002</v>
       </c>
-      <c r="O16" s="61">
+      <c r="O16">
         <v>1.4460000000000001E-2</v>
       </c>
-      <c r="P16" s="61">
+      <c r="P16">
         <v>1.6570000000000001E-2</v>
       </c>
-      <c r="Q16" s="61">
+      <c r="Q16">
         <v>7.1229819999999999E-2</v>
       </c>
-      <c r="R16" s="61">
+      <c r="R16">
         <v>7.1610380000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
-      <c r="B17" s="42" t="s">
+      <c r="A17" s="81"/>
+      <c r="B17" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="1">
         <v>0.15690000000000001</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="1">
         <v>0.13062000000000001</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17">
         <v>2.5940000000000001E-2</v>
       </c>
-      <c r="F17" s="61">
+      <c r="F17">
         <v>6.318E-2</v>
       </c>
-      <c r="G17" s="61">
+      <c r="G17">
         <v>1.3303799999999999</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17">
         <v>4.6101799999999997</v>
       </c>
-      <c r="I17" s="61">
+      <c r="I17">
         <v>0.27245000000000003</v>
       </c>
-      <c r="J17" s="61">
+      <c r="J17">
         <v>0.54988000000000004</v>
       </c>
-      <c r="K17" s="61">
+      <c r="K17">
         <v>1.1746000000000001</v>
       </c>
-      <c r="L17" s="61">
+      <c r="L17">
         <v>0.51739999999999997</v>
       </c>
-      <c r="M17" s="61">
+      <c r="M17">
         <v>0.18729999999999999</v>
       </c>
-      <c r="N17" s="61">
+      <c r="N17">
         <v>7.9939999999999997E-2</v>
       </c>
-      <c r="O17" s="61">
+      <c r="O17">
         <v>1.0109999999999999E-2</v>
       </c>
-      <c r="P17" s="61">
+      <c r="P17">
         <v>2.7299999999999998E-3</v>
       </c>
-      <c r="Q17" s="61">
+      <c r="Q17">
         <v>0.10875120000000001</v>
       </c>
-      <c r="R17" s="61">
+      <c r="R17">
         <v>9.5070429999999997E-2</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
-      <c r="B18" s="63" t="s">
+      <c r="A18" s="81"/>
+      <c r="B18" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="60">
+      <c r="C18" s="1">
         <v>3.952E-2</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D18" s="1">
         <v>7.979E-2</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18">
         <v>1.159E-2</v>
       </c>
-      <c r="F18" s="61">
+      <c r="F18">
         <v>3.5990000000000001E-2</v>
       </c>
-      <c r="G18" s="61">
+      <c r="G18">
         <v>1.51796</v>
       </c>
-      <c r="H18" s="61">
+      <c r="H18">
         <v>1.8068200000000001</v>
       </c>
-      <c r="I18" s="61">
+      <c r="I18">
         <v>0.88570000000000004</v>
       </c>
-      <c r="J18" s="61">
+      <c r="J18">
         <v>0.15307999999999999</v>
       </c>
-      <c r="K18" s="61">
+      <c r="K18">
         <v>0.58660000000000001</v>
       </c>
-      <c r="L18" s="61">
+      <c r="L18">
         <v>1.0681</v>
       </c>
-      <c r="M18" s="61">
+      <c r="M18">
         <v>9.7869999999999999E-2</v>
       </c>
-      <c r="N18" s="61">
+      <c r="N18">
         <v>0.19423000000000001</v>
       </c>
-      <c r="O18" s="61">
+      <c r="O18">
         <v>6.8399999999999997E-3</v>
       </c>
-      <c r="P18" s="61">
+      <c r="P18">
         <v>1.035E-2</v>
       </c>
-      <c r="Q18" s="61">
+      <c r="Q18">
         <v>4.6932830000000002E-2</v>
       </c>
-      <c r="R18" s="61">
+      <c r="R18">
         <v>0.118992</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="60">
+      <c r="C20" s="1">
         <v>8.0579999999999999E-2</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="1">
         <v>1.97102</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20">
         <v>3.3520000000000001E-2</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20">
         <v>0.18340000000000001</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20">
         <v>1.62765</v>
       </c>
-      <c r="H20" s="61">
+      <c r="H20">
         <v>6.6958900000000003</v>
       </c>
-      <c r="I20" s="61">
+      <c r="I20">
         <v>0.25341000000000002</v>
       </c>
-      <c r="J20" s="61">
+      <c r="J20">
         <v>0.69528000000000001</v>
       </c>
-      <c r="K20" s="61">
+      <c r="K20">
         <v>0.26040000000000002</v>
       </c>
-      <c r="L20" s="61">
+      <c r="L20">
         <v>12.863099999999999</v>
       </c>
-      <c r="M20" s="61">
+      <c r="M20">
         <v>4.1480000000000003E-2</v>
       </c>
-      <c r="N20" s="61">
+      <c r="N20">
         <v>1.6151200000000001</v>
       </c>
-      <c r="O20" s="61">
+      <c r="O20">
         <v>3.8800000000000002E-3</v>
       </c>
-      <c r="P20" s="61">
+      <c r="P20">
         <v>3.6880000000000003E-2</v>
       </c>
-      <c r="Q20" s="61">
+      <c r="Q20">
         <v>7.5710650000000001E-3</v>
       </c>
-      <c r="R20" s="61">
+      <c r="R20">
         <v>0.9295949</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
-      <c r="B21" s="42" t="s">
+      <c r="A21" s="81"/>
+      <c r="B21" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="1">
         <v>0.14135</v>
       </c>
-      <c r="D21" s="60">
+      <c r="D21" s="1">
         <v>1.5946400000000001</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21">
         <v>1.2749999999999999E-2</v>
       </c>
-      <c r="F21" s="61">
+      <c r="F21">
         <v>8.0149999999999999E-2</v>
       </c>
-      <c r="G21" s="61">
+      <c r="G21">
         <v>3.3776299999999999</v>
       </c>
-      <c r="H21" s="61">
+      <c r="H21">
         <v>3.6155599999999999</v>
       </c>
-      <c r="I21" s="61">
+      <c r="I21">
         <v>0.13571</v>
       </c>
-      <c r="J21" s="61">
+      <c r="J21">
         <v>0.42720000000000002</v>
       </c>
-      <c r="K21" s="61">
+      <c r="K21">
         <v>0.79610000000000003</v>
       </c>
-      <c r="L21" s="61">
+      <c r="L21">
         <v>17.5017</v>
       </c>
-      <c r="M21" s="61">
+      <c r="M21">
         <v>0.10358000000000001</v>
       </c>
-      <c r="N21" s="61">
+      <c r="N21">
         <v>2.7058800000000001</v>
       </c>
-      <c r="O21" s="61">
+      <c r="O21">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="P21" s="61">
+      <c r="P21">
         <v>5.246E-2</v>
       </c>
-      <c r="Q21" s="61">
+      <c r="Q21">
         <v>0.79727970000000004</v>
       </c>
-      <c r="R21" s="61">
+      <c r="R21">
         <v>5.3098919999999996</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="91"/>
-      <c r="B22" s="42" t="s">
+      <c r="A22" s="81"/>
+      <c r="B22" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="60">
+      <c r="C22" s="1">
         <v>0.22552</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22" s="1">
         <v>0.66871999999999998</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22">
         <v>1.9E-2</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F22">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G22">
         <v>2.5739899999999998</v>
       </c>
-      <c r="H22" s="61">
+      <c r="H22">
         <v>6.2234100000000003</v>
       </c>
-      <c r="I22" s="61">
+      <c r="I22">
         <v>0.18423</v>
       </c>
-      <c r="J22" s="61">
+      <c r="J22">
         <v>0.19303000000000001</v>
       </c>
-      <c r="K22" s="61">
+      <c r="K22">
         <v>2.8609</v>
       </c>
-      <c r="L22" s="61">
+      <c r="L22">
         <v>11.5108</v>
       </c>
-      <c r="M22" s="61">
+      <c r="M22">
         <v>0.43491000000000002</v>
       </c>
-      <c r="N22" s="61">
+      <c r="N22">
         <v>1.70679</v>
       </c>
-      <c r="O22" s="61">
+      <c r="O22">
         <v>7.5300000000000002E-3</v>
       </c>
-      <c r="P22" s="61">
+      <c r="P22">
         <v>2.1069999999999998E-2</v>
       </c>
-      <c r="Q22" s="61">
+      <c r="Q22">
         <v>0.46590189999999998</v>
       </c>
-      <c r="R22" s="61">
+      <c r="R22">
         <v>21.138449999999999</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="91"/>
-      <c r="B23" s="42" t="s">
+      <c r="A23" s="81"/>
+      <c r="B23" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="60">
+      <c r="C23" s="1">
         <v>9.3020000000000005E-2</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23" s="1">
         <v>1.3063400000000001</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23">
         <v>0.03</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F23">
         <v>0.218</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61">
+      <c r="Q23">
         <v>3.005576</v>
       </c>
-      <c r="R23" s="61">
+      <c r="R23">
         <v>72.501519999999999</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="91"/>
-      <c r="B24" s="42" t="s">
+      <c r="A24" s="81"/>
+      <c r="B24" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="60">
+      <c r="C24" s="1">
         <v>0.10376000000000001</v>
       </c>
-      <c r="D24" s="60">
+      <c r="D24" s="1">
         <v>0.76693</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F24" s="61">
+      <c r="F24">
         <v>0.114</v>
       </c>
-      <c r="G24" s="61">
+      <c r="G24">
         <v>1.3298399999999999</v>
       </c>
-      <c r="H24" s="61">
+      <c r="H24">
         <v>3.0274899999999998</v>
       </c>
-      <c r="I24" s="61">
+      <c r="I24">
         <v>0.13791999999999999</v>
       </c>
-      <c r="J24" s="61">
+      <c r="J24">
         <v>0.50483999999999996</v>
       </c>
-      <c r="K24" s="61">
+      <c r="K24">
         <v>1.2904</v>
       </c>
-      <c r="L24" s="61">
+      <c r="L24">
         <v>18.9466</v>
       </c>
-      <c r="M24" s="61">
+      <c r="M24">
         <v>0.16200999999999999</v>
       </c>
-      <c r="N24" s="61">
+      <c r="N24">
         <v>3.10764</v>
       </c>
-      <c r="O24" s="61">
+      <c r="O24">
         <v>1.218E-2</v>
       </c>
-      <c r="P24" s="61">
+      <c r="P24">
         <v>9.3539999999999998E-2</v>
       </c>
-      <c r="Q24" s="61">
+      <c r="Q24">
         <v>6.0762669999999998E-2</v>
       </c>
-      <c r="R24" s="61">
+      <c r="R24">
         <v>0.91150299999999995</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
-      <c r="B25" s="42" t="s">
+      <c r="A25" s="81"/>
+      <c r="B25" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="60">
+      <c r="C25" s="1">
         <v>0.16244</v>
       </c>
-      <c r="D25" s="60">
+      <c r="D25" s="1">
         <v>2.1956500000000001</v>
       </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61">
+      <c r="G25">
         <v>2.3962300000000001</v>
       </c>
-      <c r="H25" s="61">
+      <c r="H25">
         <v>6.1444799999999997</v>
       </c>
-      <c r="I25" s="61">
+      <c r="I25">
         <v>0.20893</v>
       </c>
-      <c r="J25" s="61">
+      <c r="J25">
         <v>0.95872999999999997</v>
       </c>
-      <c r="K25" s="61">
+      <c r="K25">
         <v>1.2721</v>
       </c>
-      <c r="L25" s="61">
+      <c r="L25">
         <v>18.484500000000001</v>
       </c>
-      <c r="M25" s="61">
+      <c r="M25">
         <v>0.18299000000000001</v>
       </c>
-      <c r="N25" s="61">
+      <c r="N25">
         <v>3.7067000000000001</v>
       </c>
-      <c r="O25" s="61">
+      <c r="O25">
         <v>5.8100000000000001E-3</v>
       </c>
-      <c r="P25" s="61">
+      <c r="P25">
         <v>6.2520000000000006E-2</v>
       </c>
-      <c r="Q25" s="61">
+      <c r="Q25">
         <v>6.7608699999999994E-2</v>
       </c>
-      <c r="R25" s="61">
+      <c r="R25">
         <v>46.007680000000001</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="81"/>
+      <c r="B26" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="1">
         <v>0.12583</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D26" s="1">
         <v>0.72970000000000002</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F26" s="61">
+      <c r="F26">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G26" s="61">
+      <c r="G26">
         <v>1.73736</v>
       </c>
-      <c r="H26" s="61">
+      <c r="H26">
         <v>3.4052099999999998</v>
       </c>
-      <c r="I26" s="61">
+      <c r="I26">
         <v>0.15483</v>
       </c>
-      <c r="J26" s="61">
+      <c r="J26">
         <v>0.56515000000000004</v>
       </c>
-      <c r="K26" s="61">
+      <c r="K26">
         <v>1.3698999999999999</v>
       </c>
-      <c r="L26" s="61">
+      <c r="L26">
         <v>11.248100000000001</v>
       </c>
-      <c r="M26" s="61">
+      <c r="M26">
         <v>0.22184000000000001</v>
       </c>
-      <c r="N26" s="61">
+      <c r="N26">
         <v>1.9354199999999999</v>
       </c>
-      <c r="O26" s="61">
+      <c r="O26">
         <v>1.469E-2</v>
       </c>
-      <c r="P26" s="61">
+      <c r="P26">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="Q26" s="61">
+      <c r="Q26">
         <v>0.1439704</v>
       </c>
-      <c r="R26" s="61">
+      <c r="R26">
         <v>1.7847919999999999</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
-      <c r="B27" s="42" t="s">
+      <c r="A27" s="81"/>
+      <c r="B27" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="60">
+      <c r="C27" s="1">
         <v>0.13325999999999999</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="1">
         <v>0.99602999999999997</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F27" s="61">
+      <c r="F27">
         <v>0.187</v>
       </c>
-      <c r="G27" s="61">
+      <c r="G27">
         <v>1.50474</v>
       </c>
-      <c r="H27" s="61">
+      <c r="H27">
         <v>2.3337500000000002</v>
       </c>
-      <c r="I27" s="61">
+      <c r="I27">
         <v>0.18553</v>
       </c>
-      <c r="J27" s="61">
+      <c r="J27">
         <v>1.82348</v>
       </c>
-      <c r="K27" s="61">
+      <c r="K27">
         <v>1.1708000000000001</v>
       </c>
-      <c r="L27" s="61">
+      <c r="L27">
         <v>16.4222</v>
       </c>
-      <c r="M27" s="61">
+      <c r="M27">
         <v>0.16802</v>
       </c>
-      <c r="N27" s="61">
+      <c r="N27">
         <v>2.5175399999999999</v>
       </c>
-      <c r="O27" s="61">
+      <c r="O27">
         <v>1.372E-2</v>
       </c>
-      <c r="P27" s="61">
+      <c r="P27">
         <v>6.3149999999999998E-2</v>
       </c>
-      <c r="Q27" s="61">
+      <c r="Q27">
         <v>4.3460340000000004</v>
       </c>
-      <c r="R27" s="61">
+      <c r="R27">
         <v>24.10435</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="91"/>
-      <c r="B28" s="42" t="s">
+      <c r="A28" s="81"/>
+      <c r="B28" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="60">
+      <c r="C28" s="1">
         <v>0.17169999999999999</v>
       </c>
-      <c r="D28" s="60">
+      <c r="D28" s="1">
         <v>0.7036</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28">
         <v>1.6E-2</v>
       </c>
-      <c r="F28" s="61">
+      <c r="F28">
         <v>0.14899999999999999</v>
       </c>
-      <c r="G28" s="61">
+      <c r="G28">
         <v>1.6746399999999999</v>
       </c>
-      <c r="H28" s="61">
+      <c r="H28">
         <v>4.4617199999999997</v>
       </c>
-      <c r="I28" s="61">
+      <c r="I28">
         <v>0.12769</v>
       </c>
-      <c r="J28" s="61">
+      <c r="J28">
         <v>0.8327</v>
       </c>
-      <c r="K28" s="61">
+      <c r="K28">
         <v>3.5350999999999999</v>
       </c>
-      <c r="L28" s="61">
+      <c r="L28">
         <v>18.410499999999999</v>
       </c>
-      <c r="M28" s="61">
+      <c r="M28">
         <v>0.54252999999999996</v>
       </c>
-      <c r="N28" s="61">
+      <c r="N28">
         <v>2.9176199999999999</v>
       </c>
-      <c r="O28" s="61">
+      <c r="O28">
         <v>1.9130000000000001E-2</v>
       </c>
-      <c r="P28" s="61">
+      <c r="P28">
         <v>7.1720000000000006E-2</v>
       </c>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="91"/>
-      <c r="B29" s="42" t="s">
+      <c r="A29" s="81"/>
+      <c r="B29" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="1">
         <v>0.10972</v>
       </c>
-      <c r="D29" s="60">
+      <c r="D29" s="1">
         <v>1.66903</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F29" s="61">
+      <c r="F29">
         <v>0.19900000000000001</v>
       </c>
-      <c r="G29" s="61">
+      <c r="G29">
         <v>1.7123200000000001</v>
       </c>
-      <c r="H29" s="61">
+      <c r="H29">
         <v>4.4630799999999997</v>
       </c>
-      <c r="I29" s="61">
+      <c r="I29">
         <v>0.53849999999999998</v>
       </c>
-      <c r="J29" s="61">
+      <c r="J29">
         <v>2.0443099999999998</v>
       </c>
-      <c r="K29" s="61">
+      <c r="K29">
         <v>0.4451</v>
       </c>
-      <c r="L29" s="61">
+      <c r="L29">
         <v>14.143000000000001</v>
       </c>
-      <c r="M29" s="61">
+      <c r="M29">
         <v>6.1100000000000002E-2</v>
       </c>
-      <c r="N29" s="61">
+      <c r="N29">
         <v>2.40265</v>
       </c>
-      <c r="O29" s="61">
+      <c r="O29">
         <v>4.5399999999999998E-3</v>
       </c>
-      <c r="P29" s="61">
+      <c r="P29">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="Q29" s="61">
+      <c r="Q29">
         <v>3.0973199999999999E-2</v>
       </c>
-      <c r="R29" s="61">
+      <c r="R29">
         <v>2.1002990000000001</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="91"/>
-      <c r="B30" s="42" t="s">
+      <c r="A30" s="81"/>
+      <c r="B30" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="60">
+      <c r="C30" s="1">
         <v>9.4719999999999999E-2</v>
       </c>
-      <c r="D30" s="60">
+      <c r="D30" s="1">
         <v>0.61809000000000003</v>
       </c>
-      <c r="E30" s="61">
+      <c r="E30">
         <v>2.2179999999999998E-2</v>
       </c>
-      <c r="F30" s="61">
+      <c r="F30">
         <v>6.2560000000000004E-2</v>
       </c>
-      <c r="G30" s="61">
+      <c r="G30">
         <v>2.3571800000000001</v>
       </c>
-      <c r="H30" s="61">
+      <c r="H30">
         <v>3.5671499999999998</v>
       </c>
-      <c r="I30" s="61">
+      <c r="I30">
         <v>0.35672999999999999</v>
       </c>
-      <c r="J30" s="61">
+      <c r="J30">
         <v>0.48531000000000002</v>
       </c>
-      <c r="K30" s="61">
+      <c r="K30">
         <v>0.62290000000000001</v>
       </c>
-      <c r="L30" s="61">
+      <c r="L30">
         <v>9.8656000000000006</v>
       </c>
-      <c r="M30" s="61">
+      <c r="M30">
         <v>0.12737000000000001</v>
       </c>
-      <c r="N30" s="61">
+      <c r="N30">
         <v>1.72611</v>
       </c>
-      <c r="O30" s="61">
+      <c r="O30">
         <v>5.3699999999999998E-3</v>
       </c>
-      <c r="P30" s="61">
+      <c r="P30">
         <v>3.7310000000000003E-2</v>
       </c>
-      <c r="Q30" s="61">
+      <c r="Q30">
         <v>3.6024849999999997E-2</v>
       </c>
-      <c r="R30" s="61">
+      <c r="R30">
         <v>1.7896300000000001</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="91"/>
-      <c r="B31" s="42" t="s">
+      <c r="A31" s="81"/>
+      <c r="B31" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="60">
+      <c r="C31" s="1">
         <v>0.10598</v>
       </c>
-      <c r="D31" s="60">
+      <c r="D31" s="1">
         <v>1.8714500000000001</v>
       </c>
-      <c r="E31" s="61">
+      <c r="E31">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F31" s="61">
+      <c r="F31">
         <v>0.25800000000000001</v>
       </c>
-      <c r="G31" s="61">
+      <c r="G31">
         <v>2.42198</v>
       </c>
-      <c r="H31" s="61">
+      <c r="H31">
         <v>5.7871800000000002</v>
       </c>
-      <c r="I31" s="61">
+      <c r="I31">
         <v>0.18040999999999999</v>
       </c>
-      <c r="J31" s="61">
+      <c r="J31">
         <v>1.4315199999999999</v>
       </c>
-      <c r="K31" s="61">
+      <c r="K31">
         <v>1.0951</v>
       </c>
-      <c r="L31" s="61">
+      <c r="L31">
         <v>15.924899999999999</v>
       </c>
-      <c r="M31" s="61">
+      <c r="M31">
         <v>0.18522</v>
       </c>
-      <c r="N31" s="61">
+      <c r="N31">
         <v>3.4410099999999999</v>
       </c>
-      <c r="O31" s="61">
+      <c r="O31">
         <v>5.7600000000000004E-3</v>
       </c>
-      <c r="P31" s="61">
+      <c r="P31">
         <v>5.008E-2</v>
       </c>
-      <c r="Q31" s="61">
+      <c r="Q31">
         <v>2.557731</v>
       </c>
-      <c r="R31" s="61">
+      <c r="R31">
         <v>29.95242</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="91"/>
-      <c r="B32" s="42" t="s">
+      <c r="A32" s="81"/>
+      <c r="B32" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="60">
+      <c r="C32" s="1">
         <v>8.7379999999999999E-2</v>
       </c>
-      <c r="D32" s="60">
+      <c r="D32" s="1">
         <v>1.6113299999999999</v>
       </c>
-      <c r="E32" s="61">
+      <c r="E32">
         <v>1.6E-2</v>
       </c>
-      <c r="F32" s="61">
+      <c r="F32">
         <v>0.14099999999999999</v>
       </c>
-      <c r="G32" s="61">
+      <c r="G32">
         <v>2.4435899999999999</v>
       </c>
-      <c r="H32" s="61">
+      <c r="H32">
         <v>8.6420999999999992</v>
       </c>
-      <c r="I32" s="61">
+      <c r="I32">
         <v>0.30467</v>
       </c>
-      <c r="J32" s="61">
+      <c r="J32">
         <v>0.58159000000000005</v>
       </c>
-      <c r="K32" s="61">
+      <c r="K32">
         <v>1.181</v>
       </c>
-      <c r="L32" s="61">
+      <c r="L32">
         <v>23.6036</v>
       </c>
-      <c r="M32" s="61">
+      <c r="M32">
         <v>0.17079</v>
       </c>
-      <c r="N32" s="61">
+      <c r="N32">
         <v>5.1259899999999998</v>
       </c>
-      <c r="O32" s="61">
+      <c r="O32">
         <v>1.099E-2</v>
       </c>
-      <c r="P32" s="61">
+      <c r="P32">
         <v>0.11234</v>
       </c>
-      <c r="Q32" s="61">
+      <c r="Q32">
         <v>3.1369260000000003E-2</v>
       </c>
-      <c r="R32" s="61">
+      <c r="R32">
         <v>1.013811</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="91"/>
-      <c r="B33" s="42" t="s">
+      <c r="A33" s="81"/>
+      <c r="B33" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="60">
+      <c r="C33" s="1">
         <v>5.8520000000000003E-2</v>
       </c>
-      <c r="D33" s="60">
+      <c r="D33" s="1">
         <v>0.68994999999999995</v>
       </c>
-      <c r="E33" s="61">
+      <c r="E33">
         <v>2.946E-2</v>
       </c>
-      <c r="F33" s="61">
+      <c r="F33">
         <v>7.0550000000000002E-2</v>
       </c>
-      <c r="G33" s="61">
+      <c r="G33">
         <v>1.1678900000000001</v>
       </c>
-      <c r="H33" s="61">
+      <c r="H33">
         <v>2.8374000000000001</v>
       </c>
-      <c r="I33" s="61">
+      <c r="I33">
         <v>0.12126000000000001</v>
       </c>
-      <c r="J33" s="61">
+      <c r="J33">
         <v>0.50690999999999997</v>
       </c>
-      <c r="K33" s="61">
+      <c r="K33">
         <v>1.4298999999999999</v>
       </c>
-      <c r="L33" s="61">
+      <c r="L33">
         <v>16.644100000000002</v>
       </c>
-      <c r="M33" s="61">
+      <c r="M33">
         <v>0.22661999999999999</v>
       </c>
-      <c r="N33" s="61">
+      <c r="N33">
         <v>3.2856200000000002</v>
       </c>
-      <c r="O33" s="61">
+      <c r="O33">
         <v>7.1399999999999996E-3</v>
       </c>
-      <c r="P33" s="61">
+      <c r="P33">
         <v>4.5780000000000001E-2</v>
       </c>
-      <c r="Q33" s="61">
+      <c r="Q33">
         <v>8.4783750000000005E-2</v>
       </c>
-      <c r="R33" s="61">
+      <c r="R33">
         <v>2.5479759999999998</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="91"/>
-      <c r="B34" s="42" t="s">
+      <c r="A34" s="81"/>
+      <c r="B34" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="60">
+      <c r="C34" s="1">
         <v>6.8169999999999994E-2</v>
       </c>
-      <c r="D34" s="60">
+      <c r="D34" s="1">
         <v>0.84574000000000005</v>
       </c>
-      <c r="E34" s="61">
+      <c r="E34">
         <v>3.1309999999999998E-2</v>
       </c>
-      <c r="F34" s="61">
+      <c r="F34">
         <v>0.19067000000000001</v>
       </c>
-      <c r="G34" s="61">
+      <c r="G34">
         <v>1.45967</v>
       </c>
-      <c r="H34" s="61">
+      <c r="H34">
         <v>7.2844800000000003</v>
       </c>
-      <c r="I34" s="61">
+      <c r="I34">
         <v>0.42401</v>
       </c>
-      <c r="J34" s="61">
+      <c r="J34">
         <v>0.96660000000000001</v>
       </c>
-      <c r="K34" s="61">
+      <c r="K34">
         <v>0.58199999999999996</v>
       </c>
-      <c r="L34" s="61">
+      <c r="L34">
         <v>10.132099999999999</v>
       </c>
-      <c r="M34" s="61">
+      <c r="M34">
         <v>0.11024</v>
       </c>
-      <c r="N34" s="61">
+      <c r="N34">
         <v>1.51084</v>
       </c>
-      <c r="O34" s="61">
+      <c r="O34">
         <v>7.62E-3</v>
       </c>
-      <c r="P34" s="61">
+      <c r="P34">
         <v>5.1810000000000002E-2</v>
       </c>
-      <c r="Q34" s="61">
+      <c r="Q34">
         <v>5.3756379999999999E-2</v>
       </c>
-      <c r="R34" s="61">
+      <c r="R34">
         <v>0.73363279999999997</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="A20:A34"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="A20:A34"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6130,7 +6118,7 @@
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="23" width="9.140625" style="5"/>
     <col min="24" max="24" width="12.140625" style="5" customWidth="1"/>
@@ -6147,73 +6135,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
     </row>
     <row r="2" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="H2" s="79" t="s">
+      <c r="F2" s="69"/>
+      <c r="H2" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="79"/>
-      <c r="K2" s="79" t="s">
+      <c r="I2" s="69"/>
+      <c r="K2" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="79"/>
-      <c r="N2" s="79" t="s">
+      <c r="L2" s="69"/>
+      <c r="N2" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="79"/>
-      <c r="Q2" s="79" t="s">
+      <c r="O2" s="69"/>
+      <c r="Q2" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="T2" s="79" t="s">
+      <c r="R2" s="69"/>
+      <c r="T2" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="W2" s="79" t="s">
+      <c r="U2" s="69"/>
+      <c r="W2" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="79"/>
-      <c r="Z2" s="79" t="s">
+      <c r="X2" s="69"/>
+      <c r="Z2" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="AA2" s="79"/>
-      <c r="AC2" s="79" t="s">
+      <c r="AA2" s="69"/>
+      <c r="AC2" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="AD2" s="79"/>
-      <c r="AF2" s="79" t="s">
+      <c r="AD2" s="69"/>
+      <c r="AF2" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="AG2" s="79"/>
-      <c r="AI2" s="79" t="s">
+      <c r="AG2" s="69"/>
+      <c r="AI2" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="AJ2" s="79"/>
-      <c r="AL2" s="79" t="s">
+      <c r="AJ2" s="69"/>
+      <c r="AL2" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="AM2" s="79"/>
-      <c r="AO2" s="79" t="s">
+      <c r="AM2" s="69"/>
+      <c r="AO2" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="AP2" s="79"/>
-      <c r="AR2" s="79" t="s">
+      <c r="AP2" s="69"/>
+      <c r="AR2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="AS2" s="79"/>
-      <c r="AU2" s="79" t="s">
+      <c r="AS2" s="69"/>
+      <c r="AU2" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="AV2" s="79"/>
+      <c r="AV2" s="69"/>
     </row>
     <row r="3" spans="2:48" x14ac:dyDescent="0.25">
       <c r="C3" s="9" t="s">
@@ -6311,7 +6299,7 @@
       </c>
     </row>
     <row r="4" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="69" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -6409,7 +6397,7 @@
       </c>
     </row>
     <row r="5" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B5" s="79"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
@@ -6505,7 +6493,7 @@
       </c>
     </row>
     <row r="6" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B6" s="79"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
@@ -6601,7 +6589,7 @@
       </c>
     </row>
     <row r="7" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B7" s="79"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
@@ -6697,7 +6685,7 @@
       </c>
     </row>
     <row r="8" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B8" s="79"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
@@ -6793,7 +6781,7 @@
       </c>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B9" s="79"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
@@ -6865,7 +6853,7 @@
       </c>
     </row>
     <row r="10" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B10" s="79"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
@@ -6961,7 +6949,7 @@
       </c>
     </row>
     <row r="11" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B11" s="79"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="9" t="s">
         <v>43</v>
       </c>
@@ -7057,7 +7045,7 @@
       </c>
     </row>
     <row r="12" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B12" s="79"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
@@ -7153,7 +7141,7 @@
       </c>
     </row>
     <row r="13" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B13" s="79"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
@@ -7249,7 +7237,7 @@
       </c>
     </row>
     <row r="14" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B14" s="79"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="9" t="s">
         <v>16</v>
       </c>
@@ -7345,7 +7333,7 @@
       </c>
     </row>
     <row r="15" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B15" s="79"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="9" t="s">
         <v>17</v>
       </c>
@@ -7437,7 +7425,7 @@
       </c>
     </row>
     <row r="16" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B16" s="79"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="9" t="s">
         <v>18</v>
       </c>
@@ -7533,7 +7521,7 @@
       </c>
     </row>
     <row r="17" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B17" s="79"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="9" t="s">
         <v>19</v>
       </c>
@@ -7625,7 +7613,7 @@
       </c>
     </row>
     <row r="18" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B18" s="79"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="9" t="s">
         <v>20</v>
       </c>
@@ -7720,41 +7708,41 @@
         <v>36.04</v>
       </c>
     </row>
-    <row r="19" spans="2:48" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="65"/>
-      <c r="AF19" s="65"/>
-      <c r="AG19" s="65"/>
-      <c r="AI19" s="65"/>
-      <c r="AJ19" s="65"/>
-      <c r="AL19" s="65"/>
-      <c r="AM19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AU19" s="65"/>
-      <c r="AV19" s="65"/>
+    <row r="19" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="C19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
     </row>
     <row r="20" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="69" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -7852,7 +7840,7 @@
       </c>
     </row>
     <row r="21" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B21" s="79"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="9" t="s">
         <v>21</v>
       </c>
@@ -7948,7 +7936,7 @@
       </c>
     </row>
     <row r="22" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B22" s="79"/>
+      <c r="B22" s="69"/>
       <c r="C22" s="9" t="s">
         <v>22</v>
       </c>
@@ -8044,7 +8032,7 @@
       </c>
     </row>
     <row r="23" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B23" s="79"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="9" t="s">
         <v>42</v>
       </c>
@@ -8140,7 +8128,7 @@
       </c>
     </row>
     <row r="24" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B24" s="79"/>
+      <c r="B24" s="69"/>
       <c r="C24" s="9" t="s">
         <v>23</v>
       </c>
@@ -8236,7 +8224,7 @@
       </c>
     </row>
     <row r="25" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B25" s="79"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="9" t="s">
         <v>46</v>
       </c>
@@ -8308,7 +8296,7 @@
       </c>
     </row>
     <row r="26" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B26" s="79"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="9" t="s">
         <v>24</v>
       </c>
@@ -8404,7 +8392,7 @@
       </c>
     </row>
     <row r="27" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B27" s="79"/>
+      <c r="B27" s="69"/>
       <c r="C27" s="9" t="s">
         <v>25</v>
       </c>
@@ -8500,7 +8488,7 @@
       </c>
     </row>
     <row r="28" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B28" s="79"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="9" t="s">
         <v>26</v>
       </c>
@@ -8596,7 +8584,7 @@
       </c>
     </row>
     <row r="29" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B29" s="79"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="9" t="s">
         <v>27</v>
       </c>
@@ -8692,7 +8680,7 @@
       </c>
     </row>
     <row r="30" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B30" s="79"/>
+      <c r="B30" s="69"/>
       <c r="C30" s="9" t="s">
         <v>28</v>
       </c>
@@ -8788,7 +8776,7 @@
       </c>
     </row>
     <row r="31" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B31" s="79"/>
+      <c r="B31" s="69"/>
       <c r="C31" s="9" t="s">
         <v>29</v>
       </c>
@@ -8884,7 +8872,7 @@
       </c>
     </row>
     <row r="32" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B32" s="79"/>
+      <c r="B32" s="69"/>
       <c r="C32" s="9" t="s">
         <v>30</v>
       </c>
@@ -8980,7 +8968,7 @@
       </c>
     </row>
     <row r="33" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B33" s="79"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="9" t="s">
         <v>31</v>
       </c>
@@ -9072,7 +9060,7 @@
       </c>
     </row>
     <row r="34" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B34" s="79"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="9" t="s">
         <v>32</v>
       </c>
@@ -9169,6 +9157,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="B20:B34"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AR2:AS2"/>
     <mergeCell ref="AU2:AV2"/>
     <mergeCell ref="T2:U2"/>
@@ -9177,16 +9175,6 @@
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="B20:B34"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9200,137 +9188,137 @@
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:87" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="F2" s="79" t="s">
+      <c r="D2" s="69"/>
+      <c r="F2" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="79"/>
+      <c r="G2" s="69"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="L2" s="79" t="s">
+      <c r="J2" s="69"/>
+      <c r="L2" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="79"/>
-      <c r="O2" s="79" t="s">
+      <c r="M2" s="69"/>
+      <c r="O2" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="79"/>
-      <c r="R2" s="79" t="s">
+      <c r="P2" s="69"/>
+      <c r="R2" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="79"/>
-      <c r="U2" s="79" t="s">
+      <c r="S2" s="69"/>
+      <c r="U2" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="79"/>
-      <c r="X2" s="79" t="s">
+      <c r="V2" s="69"/>
+      <c r="X2" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Y2" s="79"/>
-      <c r="AA2" s="79" t="s">
+      <c r="Y2" s="69"/>
+      <c r="AA2" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="AB2" s="79"/>
-      <c r="AD2" s="79" t="s">
+      <c r="AB2" s="69"/>
+      <c r="AD2" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="AE2" s="79"/>
-      <c r="AG2" s="79" t="s">
+      <c r="AE2" s="69"/>
+      <c r="AG2" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="AH2" s="79"/>
-      <c r="AJ2" s="79" t="s">
+      <c r="AH2" s="69"/>
+      <c r="AJ2" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="AK2" s="79"/>
-      <c r="AM2" s="79" t="s">
+      <c r="AK2" s="69"/>
+      <c r="AM2" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="AN2" s="79"/>
-      <c r="AP2" s="79" t="s">
+      <c r="AN2" s="69"/>
+      <c r="AP2" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="AQ2" s="79"/>
-      <c r="AS2" s="76" t="s">
+      <c r="AQ2" s="69"/>
+      <c r="AS2" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="AT2" s="76"/>
-      <c r="AV2" s="76" t="s">
+      <c r="AT2" s="66"/>
+      <c r="AV2" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="AW2" s="76"/>
-      <c r="AY2" s="76" t="s">
+      <c r="AW2" s="66"/>
+      <c r="AY2" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="AZ2" s="76"/>
-      <c r="BB2" s="76" t="s">
+      <c r="AZ2" s="66"/>
+      <c r="BB2" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="BC2" s="76"/>
-      <c r="BE2" s="76" t="s">
+      <c r="BC2" s="66"/>
+      <c r="BE2" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="BF2" s="76"/>
-      <c r="BH2" s="76" t="s">
+      <c r="BF2" s="66"/>
+      <c r="BH2" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="BI2" s="76"/>
-      <c r="BK2" s="76" t="s">
+      <c r="BI2" s="66"/>
+      <c r="BK2" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="BL2" s="76"/>
-      <c r="BN2" s="79" t="s">
+      <c r="BL2" s="66"/>
+      <c r="BN2" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="BO2" s="79"/>
-      <c r="BQ2" s="79" t="s">
+      <c r="BO2" s="69"/>
+      <c r="BQ2" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="BR2" s="79"/>
-      <c r="BT2" s="79" t="s">
+      <c r="BR2" s="69"/>
+      <c r="BT2" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BU2" s="79"/>
-      <c r="BW2" s="79" t="s">
+      <c r="BU2" s="69"/>
+      <c r="BW2" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BX2" s="79"/>
-      <c r="BZ2" s="79" t="s">
+      <c r="BX2" s="69"/>
+      <c r="BZ2" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="CA2" s="79"/>
-      <c r="CC2" s="79" t="s">
+      <c r="CA2" s="69"/>
+      <c r="CC2" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="CD2" s="79"/>
-      <c r="CF2" s="79" t="s">
+      <c r="CD2" s="69"/>
+      <c r="CF2" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="CG2" s="79"/>
+      <c r="CG2" s="69"/>
     </row>
     <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
@@ -9507,7 +9495,7 @@
       </c>
     </row>
     <row r="4" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="84" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -9707,7 +9695,7 @@
       <c r="CI4" s="23"/>
     </row>
     <row r="5" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
@@ -9905,7 +9893,7 @@
       <c r="CI5" s="23"/>
     </row>
     <row r="6" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
@@ -10103,7 +10091,7 @@
       <c r="CI6" s="23"/>
     </row>
     <row r="7" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A7" s="93"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
@@ -10301,7 +10289,7 @@
       <c r="CI7" s="23"/>
     </row>
     <row r="8" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A8" s="93"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
@@ -10499,7 +10487,7 @@
       <c r="CI8" s="23"/>
     </row>
     <row r="9" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A9" s="93"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
@@ -10697,7 +10685,7 @@
       <c r="CI9" s="23"/>
     </row>
     <row r="10" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A10" s="93"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
@@ -10895,7 +10883,7 @@
       <c r="CI10" s="23"/>
     </row>
     <row r="11" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="9" t="s">
         <v>43</v>
       </c>
@@ -11093,7 +11081,7 @@
       <c r="CI11" s="23"/>
     </row>
     <row r="12" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
@@ -11291,7 +11279,7 @@
       <c r="CI12" s="23"/>
     </row>
     <row r="13" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A13" s="93"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="9" t="s">
         <v>15</v>
       </c>
@@ -11489,7 +11477,7 @@
       <c r="CI13" s="23"/>
     </row>
     <row r="14" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A14" s="93"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
@@ -11575,7 +11563,7 @@
       <c r="CI14" s="23"/>
     </row>
     <row r="15" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A15" s="93"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
@@ -11773,7 +11761,7 @@
       <c r="CI15" s="23"/>
     </row>
     <row r="16" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A16" s="93"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
@@ -11971,7 +11959,7 @@
       <c r="CI16" s="23"/>
     </row>
     <row r="17" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="9" t="s">
         <v>19</v>
       </c>
@@ -12169,7 +12157,7 @@
       <c r="CI17" s="23"/>
     </row>
     <row r="18" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="9" t="s">
         <v>20</v>
       </c>
@@ -12450,7 +12438,7 @@
       <c r="CI19" s="23"/>
     </row>
     <row r="20" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="85" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -12647,7 +12635,7 @@
       </c>
     </row>
     <row r="21" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="9" t="s">
         <v>21</v>
       </c>
@@ -12842,7 +12830,7 @@
       </c>
     </row>
     <row r="22" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="9" t="s">
         <v>22</v>
       </c>
@@ -13037,7 +13025,7 @@
       </c>
     </row>
     <row r="23" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="9" t="s">
         <v>42</v>
       </c>
@@ -13120,7 +13108,7 @@
       <c r="CG23" s="8"/>
     </row>
     <row r="24" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="9" t="s">
         <v>23</v>
       </c>
@@ -13315,7 +13303,7 @@
       </c>
     </row>
     <row r="25" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="9" t="s">
         <v>46</v>
       </c>
@@ -13510,7 +13498,7 @@
       </c>
     </row>
     <row r="26" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="9" t="s">
         <v>24</v>
       </c>
@@ -13705,7 +13693,7 @@
       </c>
     </row>
     <row r="27" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="9" t="s">
         <v>25</v>
       </c>
@@ -13900,7 +13888,7 @@
       </c>
     </row>
     <row r="28" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="9" t="s">
         <v>26</v>
       </c>
@@ -14095,7 +14083,7 @@
       </c>
     </row>
     <row r="29" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A29" s="94"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="9" t="s">
         <v>27</v>
       </c>
@@ -14290,7 +14278,7 @@
       </c>
     </row>
     <row r="30" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
+      <c r="A30" s="85"/>
       <c r="B30" s="9" t="s">
         <v>28</v>
       </c>
@@ -14485,7 +14473,7 @@
       </c>
     </row>
     <row r="31" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A31" s="94"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="9" t="s">
         <v>29</v>
       </c>
@@ -14680,7 +14668,7 @@
       </c>
     </row>
     <row r="32" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A32" s="94"/>
+      <c r="A32" s="85"/>
       <c r="B32" s="9" t="s">
         <v>30</v>
       </c>
@@ -14875,7 +14863,7 @@
       </c>
     </row>
     <row r="33" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A33" s="94"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="9" t="s">
         <v>31</v>
       </c>
@@ -15070,7 +15058,7 @@
       </c>
     </row>
     <row r="34" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A34" s="94"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="9" t="s">
         <v>32</v>
       </c>
@@ -15344,6 +15332,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="A20:A34"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="CF2:CG2"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="BN2:BO2"/>
@@ -15360,21 +15363,6 @@
     <mergeCell ref="BK2:BL2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="A20:A34"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15389,120 +15377,120 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:75" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="F2" s="97" t="s">
+      <c r="D2" s="87"/>
+      <c r="F2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="97"/>
-      <c r="I2" s="97" t="s">
+      <c r="G2" s="87"/>
+      <c r="I2" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="L2" s="97" t="s">
+      <c r="J2" s="87"/>
+      <c r="L2" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="97"/>
-      <c r="O2" s="97" t="s">
+      <c r="M2" s="87"/>
+      <c r="O2" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="P2" s="97"/>
-      <c r="R2" s="97" t="s">
+      <c r="P2" s="87"/>
+      <c r="R2" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="S2" s="97"/>
-      <c r="U2" s="97" t="s">
+      <c r="S2" s="87"/>
+      <c r="U2" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="97"/>
-      <c r="X2" s="97" t="s">
+      <c r="V2" s="87"/>
+      <c r="X2" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="Y2" s="97"/>
-      <c r="AA2" s="97" t="s">
+      <c r="Y2" s="87"/>
+      <c r="AA2" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="AB2" s="97"/>
-      <c r="AD2" s="97" t="s">
+      <c r="AB2" s="87"/>
+      <c r="AD2" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="AE2" s="97"/>
-      <c r="AG2" s="97" t="s">
+      <c r="AE2" s="87"/>
+      <c r="AG2" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="AH2" s="97"/>
-      <c r="AJ2" s="97" t="s">
+      <c r="AH2" s="87"/>
+      <c r="AJ2" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="AK2" s="97"/>
-      <c r="AM2" s="99" t="s">
+      <c r="AK2" s="87"/>
+      <c r="AM2" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="AN2" s="99"/>
-      <c r="AP2" s="99" t="s">
+      <c r="AN2" s="88"/>
+      <c r="AP2" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="AQ2" s="99"/>
-      <c r="AS2" s="99" t="s">
+      <c r="AQ2" s="88"/>
+      <c r="AS2" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="AT2" s="99"/>
-      <c r="AV2" s="99" t="s">
+      <c r="AT2" s="88"/>
+      <c r="AV2" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="AW2" s="99"/>
-      <c r="AY2" s="99" t="s">
+      <c r="AW2" s="88"/>
+      <c r="AY2" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="AZ2" s="99"/>
-      <c r="BB2" s="97" t="s">
+      <c r="AZ2" s="88"/>
+      <c r="BB2" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="BC2" s="97"/>
-      <c r="BE2" s="97" t="s">
+      <c r="BC2" s="87"/>
+      <c r="BE2" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="BF2" s="97"/>
-      <c r="BH2" s="97" t="s">
+      <c r="BF2" s="87"/>
+      <c r="BH2" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="BI2" s="97"/>
-      <c r="BK2" s="97" t="s">
+      <c r="BI2" s="87"/>
+      <c r="BK2" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="BL2" s="97"/>
-      <c r="BN2" s="97" t="s">
+      <c r="BL2" s="87"/>
+      <c r="BN2" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="BO2" s="97"/>
-      <c r="BQ2" s="97" t="s">
+      <c r="BO2" s="87"/>
+      <c r="BQ2" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="BR2" s="97"/>
-      <c r="BT2" s="97" t="s">
+      <c r="BR2" s="87"/>
+      <c r="BT2" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="BU2" s="97"/>
+      <c r="BU2" s="87"/>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -15654,7 +15642,7 @@
       </c>
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="86" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -15809,7 +15797,7 @@
       <c r="BW4" s="25"/>
     </row>
     <row r="5" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -15962,7 +15950,7 @@
       <c r="BW5" s="25"/>
     </row>
     <row r="6" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -16115,7 +16103,7 @@
       <c r="BW6" s="25"/>
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A7" s="98"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
@@ -16268,7 +16256,7 @@
       <c r="BW7" s="25"/>
     </row>
     <row r="8" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A8" s="98"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
@@ -16421,7 +16409,7 @@
       <c r="BW8" s="25"/>
     </row>
     <row r="9" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
@@ -16574,7 +16562,7 @@
       <c r="BW9" s="25"/>
     </row>
     <row r="10" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
@@ -16727,7 +16715,7 @@
       <c r="BW10" s="25"/>
     </row>
     <row r="11" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A11" s="98"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="7" t="s">
         <v>43</v>
       </c>
@@ -16880,7 +16868,7 @@
       <c r="BW11" s="25"/>
     </row>
     <row r="12" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A12" s="98"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -17033,7 +17021,7 @@
       <c r="BW12" s="25"/>
     </row>
     <row r="13" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A13" s="98"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
@@ -17186,7 +17174,7 @@
       <c r="BW13" s="25"/>
     </row>
     <row r="14" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
@@ -17339,7 +17327,7 @@
       <c r="BW14" s="25"/>
     </row>
     <row r="15" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
@@ -17492,7 +17480,7 @@
       <c r="BW15" s="25"/>
     </row>
     <row r="16" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A16" s="98"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
@@ -17645,7 +17633,7 @@
       <c r="BW16" s="25"/>
     </row>
     <row r="17" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
@@ -17798,7 +17786,7 @@
       <c r="BW17" s="25"/>
     </row>
     <row r="18" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
@@ -18005,7 +17993,7 @@
       <c r="BW19" s="25"/>
     </row>
     <row r="20" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="86" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -18157,7 +18145,7 @@
       </c>
     </row>
     <row r="21" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A21" s="98"/>
+      <c r="A21" s="86"/>
       <c r="B21" s="7" t="s">
         <v>21</v>
       </c>
@@ -18307,7 +18295,7 @@
       </c>
     </row>
     <row r="22" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A22" s="98"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="7" t="s">
         <v>22</v>
       </c>
@@ -18457,7 +18445,7 @@
       </c>
     </row>
     <row r="23" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A23" s="98"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="7" t="s">
         <v>42</v>
       </c>
@@ -18607,7 +18595,7 @@
       </c>
     </row>
     <row r="24" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A24" s="98"/>
+      <c r="A24" s="86"/>
       <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
@@ -18757,7 +18745,7 @@
       </c>
     </row>
     <row r="25" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A25" s="98"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="7" t="s">
         <v>46</v>
       </c>
@@ -18903,7 +18891,7 @@
       </c>
     </row>
     <row r="26" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A26" s="98"/>
+      <c r="A26" s="86"/>
       <c r="B26" s="7" t="s">
         <v>24</v>
       </c>
@@ -19053,7 +19041,7 @@
       </c>
     </row>
     <row r="27" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A27" s="98"/>
+      <c r="A27" s="86"/>
       <c r="B27" s="7" t="s">
         <v>25</v>
       </c>
@@ -19203,7 +19191,7 @@
       </c>
     </row>
     <row r="28" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A28" s="98"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="7" t="s">
         <v>26</v>
       </c>
@@ -19353,7 +19341,7 @@
       </c>
     </row>
     <row r="29" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A29" s="98"/>
+      <c r="A29" s="86"/>
       <c r="B29" s="7" t="s">
         <v>27</v>
       </c>
@@ -19503,7 +19491,7 @@
       </c>
     </row>
     <row r="30" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A30" s="98"/>
+      <c r="A30" s="86"/>
       <c r="B30" s="7" t="s">
         <v>28</v>
       </c>
@@ -19653,7 +19641,7 @@
       </c>
     </row>
     <row r="31" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A31" s="98"/>
+      <c r="A31" s="86"/>
       <c r="B31" s="7" t="s">
         <v>29</v>
       </c>
@@ -19803,7 +19791,7 @@
       </c>
     </row>
     <row r="32" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A32" s="98"/>
+      <c r="A32" s="86"/>
       <c r="B32" s="7" t="s">
         <v>30</v>
       </c>
@@ -19953,7 +19941,7 @@
       </c>
     </row>
     <row r="33" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A33" s="98"/>
+      <c r="A33" s="86"/>
       <c r="B33" s="7" t="s">
         <v>31</v>
       </c>
@@ -20103,7 +20091,7 @@
       </c>
     </row>
     <row r="34" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A34" s="98"/>
+      <c r="A34" s="86"/>
       <c r="B34" s="7" t="s">
         <v>32</v>
       </c>
@@ -20335,12 +20323,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A20:A34"/>
-    <mergeCell ref="BH2:BI2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BN2:BO2"/>
-    <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="BT2:BU2"/>
     <mergeCell ref="A4:A18"/>
     <mergeCell ref="AP2:AQ2"/>
@@ -20357,11 +20344,12 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A20:A34"/>
+    <mergeCell ref="BH2:BI2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="AD2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20375,96 +20363,96 @@
       <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
     <col min="18" max="18" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="F2" s="111" t="s">
+      <c r="D2" s="68"/>
+      <c r="F2" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="111"/>
-      <c r="I2" s="112" t="s">
+      <c r="G2" s="96"/>
+      <c r="I2" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="113"/>
-      <c r="L2" s="101" t="s">
+      <c r="J2" s="98"/>
+      <c r="L2" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="102"/>
-      <c r="O2" s="101" t="s">
+      <c r="M2" s="94"/>
+      <c r="O2" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="P2" s="102"/>
-      <c r="R2" s="101" t="s">
+      <c r="P2" s="94"/>
+      <c r="R2" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="S2" s="102"/>
-      <c r="U2" s="101" t="s">
+      <c r="S2" s="94"/>
+      <c r="U2" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="V2" s="102"/>
-      <c r="X2" s="101" t="s">
+      <c r="V2" s="94"/>
+      <c r="X2" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="Y2" s="102"/>
-      <c r="AA2" s="101" t="s">
+      <c r="Y2" s="94"/>
+      <c r="AA2" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="AB2" s="102"/>
-      <c r="AD2" s="100" t="s">
+      <c r="AB2" s="94"/>
+      <c r="AD2" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="AE2" s="100"/>
-      <c r="AG2" s="101" t="s">
+      <c r="AE2" s="95"/>
+      <c r="AG2" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="AH2" s="102"/>
-      <c r="AJ2" s="101" t="s">
+      <c r="AH2" s="94"/>
+      <c r="AJ2" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="AK2" s="102"/>
-      <c r="AM2" s="101" t="s">
+      <c r="AK2" s="94"/>
+      <c r="AM2" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="AN2" s="102"/>
-      <c r="AP2" s="101" t="s">
+      <c r="AN2" s="94"/>
+      <c r="AP2" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="AQ2" s="102"/>
-      <c r="AS2" s="101" t="s">
+      <c r="AQ2" s="94"/>
+      <c r="AS2" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="AT2" s="102"/>
-      <c r="AV2" s="101" t="s">
+      <c r="AT2" s="94"/>
+      <c r="AV2" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="AW2" s="102"/>
-      <c r="AY2" s="101" t="s">
+      <c r="AW2" s="94"/>
+      <c r="AY2" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="AZ2" s="102"/>
+      <c r="AZ2" s="94"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -20575,7 +20563,7 @@
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="91" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="29" t="s">
@@ -20685,7 +20673,7 @@
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="29" t="s">
         <v>8</v>
       </c>
@@ -20793,7 +20781,7 @@
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A6" s="103"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="29" t="s">
         <v>9</v>
       </c>
@@ -20901,7 +20889,7 @@
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
+      <c r="A7" s="91"/>
       <c r="B7" s="29" t="s">
         <v>10</v>
       </c>
@@ -21009,7 +20997,7 @@
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="29" t="s">
         <v>11</v>
       </c>
@@ -21117,7 +21105,7 @@
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A9" s="103"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="29" t="s">
         <v>12</v>
       </c>
@@ -21225,7 +21213,7 @@
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A10" s="103"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="29" t="s">
         <v>13</v>
       </c>
@@ -21333,7 +21321,7 @@
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A11" s="103"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="29" t="s">
         <v>43</v>
       </c>
@@ -21441,7 +21429,7 @@
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A12" s="103"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="29" t="s">
         <v>14</v>
       </c>
@@ -21549,7 +21537,7 @@
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A13" s="103"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="29" t="s">
         <v>15</v>
       </c>
@@ -21657,7 +21645,7 @@
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A14" s="103"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="29" t="s">
         <v>16</v>
       </c>
@@ -21765,7 +21753,7 @@
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A15" s="103"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="29" t="s">
         <v>17</v>
       </c>
@@ -21873,7 +21861,7 @@
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A16" s="103"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="29" t="s">
         <v>18</v>
       </c>
@@ -21981,7 +21969,7 @@
       </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A17" s="103"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="29" t="s">
         <v>19</v>
       </c>
@@ -22089,7 +22077,7 @@
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A18" s="103"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="29" t="s">
         <v>20</v>
       </c>
@@ -22235,7 +22223,7 @@
       <c r="AZ19" s="31"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="91" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="29" t="s">
@@ -22345,7 +22333,7 @@
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A21" s="103"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="29" t="s">
         <v>21</v>
       </c>
@@ -22453,7 +22441,7 @@
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A22" s="103"/>
+      <c r="A22" s="91"/>
       <c r="B22" s="29" t="s">
         <v>22</v>
       </c>
@@ -22561,7 +22549,7 @@
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A23" s="103"/>
+      <c r="A23" s="91"/>
       <c r="B23" s="29" t="s">
         <v>42</v>
       </c>
@@ -22669,7 +22657,7 @@
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A24" s="103"/>
+      <c r="A24" s="91"/>
       <c r="B24" s="29" t="s">
         <v>23</v>
       </c>
@@ -22709,7 +22697,7 @@
       <c r="AZ24" s="31"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A25" s="103"/>
+      <c r="A25" s="91"/>
       <c r="B25" s="29" t="s">
         <v>46</v>
       </c>
@@ -22817,7 +22805,7 @@
       </c>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A26" s="103"/>
+      <c r="A26" s="91"/>
       <c r="B26" s="29" t="s">
         <v>24</v>
       </c>
@@ -22925,7 +22913,7 @@
       </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A27" s="103"/>
+      <c r="A27" s="91"/>
       <c r="B27" s="29" t="s">
         <v>25</v>
       </c>
@@ -22965,7 +22953,7 @@
       <c r="AZ27" s="31"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A28" s="103"/>
+      <c r="A28" s="91"/>
       <c r="B28" s="29" t="s">
         <v>26</v>
       </c>
@@ -23073,7 +23061,7 @@
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A29" s="103"/>
+      <c r="A29" s="91"/>
       <c r="B29" s="29" t="s">
         <v>27</v>
       </c>
@@ -23181,7 +23169,7 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A30" s="103"/>
+      <c r="A30" s="91"/>
       <c r="B30" s="29" t="s">
         <v>28</v>
       </c>
@@ -23289,7 +23277,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A31" s="103"/>
+      <c r="A31" s="91"/>
       <c r="B31" s="29" t="s">
         <v>29</v>
       </c>
@@ -23397,7 +23385,7 @@
       </c>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A32" s="103"/>
+      <c r="A32" s="91"/>
       <c r="B32" s="29" t="s">
         <v>30</v>
       </c>
@@ -23505,7 +23493,7 @@
       </c>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A33" s="103"/>
+      <c r="A33" s="91"/>
       <c r="B33" s="29" t="s">
         <v>31</v>
       </c>
@@ -23613,7 +23601,7 @@
       </c>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A34" s="103"/>
+      <c r="A34" s="91"/>
       <c r="B34" s="29" t="s">
         <v>32</v>
       </c>
@@ -23721,38 +23709,38 @@
       </c>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A38" s="110" t="s">
+      <c r="A38" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="B38" s="110"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="110"/>
-      <c r="N38" s="110"/>
-      <c r="O38" s="110"/>
-      <c r="P38" s="110"/>
-      <c r="Q38" s="110"/>
-      <c r="R38" s="110"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="90"/>
+      <c r="P38" s="90"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="90"/>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="109" t="s">
+      <c r="C39" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109" t="s">
+      <c r="D39" s="92"/>
+      <c r="E39" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="109"/>
+      <c r="F39" s="92"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -23781,7 +23769,7 @@
       </c>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A41" s="103" t="s">
+      <c r="A41" s="91" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="38" t="s">
@@ -23801,7 +23789,7 @@
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A42" s="103"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="29" t="s">
         <v>8</v>
       </c>
@@ -23819,7 +23807,7 @@
       </c>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A43" s="103"/>
+      <c r="A43" s="91"/>
       <c r="B43" s="29" t="s">
         <v>9</v>
       </c>
@@ -23837,7 +23825,7 @@
       </c>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A44" s="103"/>
+      <c r="A44" s="91"/>
       <c r="B44" s="29" t="s">
         <v>10</v>
       </c>
@@ -23855,7 +23843,7 @@
       </c>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A45" s="103"/>
+      <c r="A45" s="91"/>
       <c r="B45" s="29" t="s">
         <v>11</v>
       </c>
@@ -23873,7 +23861,7 @@
       </c>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A46" s="103"/>
+      <c r="A46" s="91"/>
       <c r="B46" s="29" t="s">
         <v>12</v>
       </c>
@@ -23891,7 +23879,7 @@
       </c>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A47" s="103"/>
+      <c r="A47" s="91"/>
       <c r="B47" s="29" t="s">
         <v>13</v>
       </c>
@@ -23909,7 +23897,7 @@
       </c>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A48" s="103"/>
+      <c r="A48" s="91"/>
       <c r="B48" s="29" t="s">
         <v>43</v>
       </c>
@@ -23927,7 +23915,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="103"/>
+      <c r="A49" s="91"/>
       <c r="B49" s="29" t="s">
         <v>14</v>
       </c>
@@ -23945,7 +23933,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="103"/>
+      <c r="A50" s="91"/>
       <c r="B50" s="29" t="s">
         <v>15</v>
       </c>
@@ -23963,7 +23951,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="103"/>
+      <c r="A51" s="91"/>
       <c r="B51" s="29" t="s">
         <v>16</v>
       </c>
@@ -23981,7 +23969,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="103"/>
+      <c r="A52" s="91"/>
       <c r="B52" s="29" t="s">
         <v>17</v>
       </c>
@@ -23999,7 +23987,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="103"/>
+      <c r="A53" s="91"/>
       <c r="B53" s="29" t="s">
         <v>18</v>
       </c>
@@ -24017,7 +24005,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="103"/>
+      <c r="A54" s="91"/>
       <c r="B54" s="29" t="s">
         <v>19</v>
       </c>
@@ -24035,7 +24023,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="103"/>
+      <c r="A55" s="91"/>
       <c r="B55" s="37" t="s">
         <v>20</v>
       </c>
@@ -24061,7 +24049,7 @@
       <c r="F56" s="31"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="103" t="s">
+      <c r="A57" s="91" t="s">
         <v>3</v>
       </c>
       <c r="B57" s="38" t="s">
@@ -24081,7 +24069,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="103"/>
+      <c r="A58" s="91"/>
       <c r="B58" s="29" t="s">
         <v>21</v>
       </c>
@@ -24099,7 +24087,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="103"/>
+      <c r="A59" s="91"/>
       <c r="B59" s="29" t="s">
         <v>22</v>
       </c>
@@ -24117,7 +24105,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="103"/>
+      <c r="A60" s="91"/>
       <c r="B60" s="29" t="s">
         <v>42</v>
       </c>
@@ -24135,7 +24123,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="103"/>
+      <c r="A61" s="91"/>
       <c r="B61" s="29" t="s">
         <v>23</v>
       </c>
@@ -24145,7 +24133,7 @@
       <c r="F61" s="31"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="103"/>
+      <c r="A62" s="91"/>
       <c r="B62" s="29" t="s">
         <v>46</v>
       </c>
@@ -24163,7 +24151,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="103"/>
+      <c r="A63" s="91"/>
       <c r="B63" s="29" t="s">
         <v>24</v>
       </c>
@@ -24181,7 +24169,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="103"/>
+      <c r="A64" s="91"/>
       <c r="B64" s="29" t="s">
         <v>25</v>
       </c>
@@ -24191,7 +24179,7 @@
       <c r="F64" s="31"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="103"/>
+      <c r="A65" s="91"/>
       <c r="B65" s="29" t="s">
         <v>26</v>
       </c>
@@ -24209,7 +24197,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="103"/>
+      <c r="A66" s="91"/>
       <c r="B66" s="29" t="s">
         <v>27</v>
       </c>
@@ -24227,7 +24215,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="103"/>
+      <c r="A67" s="91"/>
       <c r="B67" s="29" t="s">
         <v>28</v>
       </c>
@@ -24245,7 +24233,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="103"/>
+      <c r="A68" s="91"/>
       <c r="B68" s="29" t="s">
         <v>29</v>
       </c>
@@ -24263,7 +24251,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="103"/>
+      <c r="A69" s="91"/>
       <c r="B69" s="29" t="s">
         <v>30</v>
       </c>
@@ -24281,7 +24269,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="103"/>
+      <c r="A70" s="91"/>
       <c r="B70" s="29" t="s">
         <v>31</v>
       </c>
@@ -24299,7 +24287,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="103"/>
+      <c r="A71" s="91"/>
       <c r="B71" s="29" t="s">
         <v>32</v>
       </c>
@@ -24318,11 +24306,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A38:R38"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A57:A71"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
     <mergeCell ref="AY2:AZ2"/>
     <mergeCell ref="A4:A18"/>
     <mergeCell ref="A20:A34"/>
@@ -24339,6 +24322,11 @@
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A38:R38"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A57:A71"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="O2:P2"/>
@@ -24356,7 +24344,7 @@
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="9.140625" style="5"/>
     <col min="6" max="6" width="10.28515625" style="5" customWidth="1"/>
@@ -24365,45 +24353,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="69" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -24426,7 +24414,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
@@ -24447,7 +24435,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
@@ -24468,7 +24456,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
@@ -24489,7 +24477,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
@@ -24510,7 +24498,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
@@ -24521,7 +24509,7 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
@@ -24542,7 +24530,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="9" t="s">
         <v>43</v>
       </c>
@@ -24563,7 +24551,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
@@ -24584,7 +24572,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="9" t="s">
         <v>15</v>
       </c>
@@ -24605,7 +24593,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
@@ -24626,7 +24614,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
@@ -24647,7 +24635,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
@@ -24668,7 +24656,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="9" t="s">
         <v>19</v>
       </c>
@@ -24689,7 +24677,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="9" t="s">
         <v>20</v>
       </c>
@@ -24718,7 +24706,7 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="69" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -24741,7 +24729,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="9" t="s">
         <v>21</v>
       </c>
@@ -24762,7 +24750,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="9" t="s">
         <v>22</v>
       </c>
@@ -24783,7 +24771,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="9" t="s">
         <v>42</v>
       </c>
@@ -24804,7 +24792,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="9" t="s">
         <v>23</v>
       </c>
@@ -24825,7 +24813,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="9" t="s">
         <v>46</v>
       </c>
@@ -24836,7 +24824,7 @@
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="79"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="9" t="s">
         <v>24</v>
       </c>
@@ -24857,7 +24845,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="79"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="9" t="s">
         <v>25</v>
       </c>
@@ -24878,7 +24866,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="79"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="9" t="s">
         <v>26</v>
       </c>
@@ -24899,7 +24887,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="9" t="s">
         <v>27</v>
       </c>
@@ -24920,7 +24908,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="9" t="s">
         <v>28</v>
       </c>
@@ -24941,7 +24929,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="9" t="s">
         <v>29</v>
       </c>
@@ -24962,7 +24950,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="9" t="s">
         <v>30</v>
       </c>
@@ -24983,7 +24971,7 @@
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="79"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="9" t="s">
         <v>31</v>
       </c>
@@ -25004,7 +24992,7 @@
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="9" t="s">
         <v>32</v>
       </c>
@@ -25033,53 +25021,53 @@
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="87" t="s">
+      <c r="A37" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="B37" s="87"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C38" s="78" t="s">
+      <c r="C38" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="D38" s="78"/>
-      <c r="F38" s="78" t="s">
+      <c r="D38" s="68"/>
+      <c r="F38" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="G38" s="78"/>
-      <c r="I38" s="79" t="s">
+      <c r="G38" s="68"/>
+      <c r="I38" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="J38" s="79"/>
-      <c r="L38" s="79" t="s">
+      <c r="J38" s="69"/>
+      <c r="L38" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="M38" s="79"/>
-      <c r="O38" s="79" t="s">
+      <c r="M38" s="69"/>
+      <c r="O38" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="P38" s="79"/>
-      <c r="R38" s="79" t="s">
+      <c r="P38" s="69"/>
+      <c r="R38" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="S38" s="79"/>
-      <c r="U38" s="79" t="s">
+      <c r="S38" s="69"/>
+      <c r="U38" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="V38" s="79"/>
-      <c r="X38" s="79" t="s">
+      <c r="V38" s="69"/>
+      <c r="X38" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="Y38" s="79"/>
-      <c r="AA38" s="79" t="s">
+      <c r="Y38" s="69"/>
+      <c r="AA38" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="AB38" s="79"/>
+      <c r="AB38" s="69"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
@@ -25141,7 +25129,7 @@
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="79" t="s">
+      <c r="A40" s="69" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="20" t="s">
@@ -25205,7 +25193,7 @@
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="79"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="20" t="s">
         <v>8</v>
       </c>
@@ -25263,7 +25251,7 @@
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="79"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="20" t="s">
         <v>9</v>
       </c>
@@ -25325,7 +25313,7 @@
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="79"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="20" t="s">
         <v>10</v>
       </c>
@@ -25387,7 +25375,7 @@
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="79"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="20" t="s">
         <v>11</v>
       </c>
@@ -25449,7 +25437,7 @@
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="79"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="20" t="s">
         <v>12</v>
       </c>
@@ -25475,7 +25463,7 @@
       <c r="AB45" s="14"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="79"/>
+      <c r="A46" s="69"/>
       <c r="B46" s="20" t="s">
         <v>13</v>
       </c>
@@ -25533,7 +25521,7 @@
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="79"/>
+      <c r="A47" s="69"/>
       <c r="B47" s="20" t="s">
         <v>43</v>
       </c>
@@ -25595,7 +25583,7 @@
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="79"/>
+      <c r="A48" s="69"/>
       <c r="B48" s="20" t="s">
         <v>14</v>
       </c>
@@ -25657,7 +25645,7 @@
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49" s="79"/>
+      <c r="A49" s="69"/>
       <c r="B49" s="20" t="s">
         <v>15</v>
       </c>
@@ -25719,7 +25707,7 @@
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50" s="79"/>
+      <c r="A50" s="69"/>
       <c r="B50" s="20" t="s">
         <v>16</v>
       </c>
@@ -25781,7 +25769,7 @@
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51" s="79"/>
+      <c r="A51" s="69"/>
       <c r="B51" s="20" t="s">
         <v>17</v>
       </c>
@@ -25843,7 +25831,7 @@
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A52" s="79"/>
+      <c r="A52" s="69"/>
       <c r="B52" s="20" t="s">
         <v>18</v>
       </c>
@@ -25905,7 +25893,7 @@
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A53" s="79"/>
+      <c r="A53" s="69"/>
       <c r="B53" s="20" t="s">
         <v>19</v>
       </c>
@@ -25951,7 +25939,7 @@
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" s="79"/>
+      <c r="A54" s="69"/>
       <c r="B54" s="20" t="s">
         <v>20</v>
       </c>
@@ -26030,7 +26018,7 @@
       <c r="AB55" s="14"/>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" s="79" t="s">
+      <c r="A56" s="69" t="s">
         <v>3</v>
       </c>
       <c r="B56" s="20" t="s">
@@ -26092,7 +26080,7 @@
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A57" s="79"/>
+      <c r="A57" s="69"/>
       <c r="B57" s="20" t="s">
         <v>21</v>
       </c>
@@ -26152,7 +26140,7 @@
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A58" s="79"/>
+      <c r="A58" s="69"/>
       <c r="B58" s="20" t="s">
         <v>22</v>
       </c>
@@ -26212,7 +26200,7 @@
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A59" s="79"/>
+      <c r="A59" s="69"/>
       <c r="B59" s="20" t="s">
         <v>42</v>
       </c>
@@ -26272,7 +26260,7 @@
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A60" s="79"/>
+      <c r="A60" s="69"/>
       <c r="B60" s="20" t="s">
         <v>23</v>
       </c>
@@ -26332,7 +26320,7 @@
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A61" s="79"/>
+      <c r="A61" s="69"/>
       <c r="B61" s="20" t="s">
         <v>46</v>
       </c>
@@ -26356,7 +26344,7 @@
       <c r="AB61" s="14"/>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A62" s="79"/>
+      <c r="A62" s="69"/>
       <c r="B62" s="20" t="s">
         <v>24</v>
       </c>
@@ -26416,7 +26404,7 @@
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A63" s="79"/>
+      <c r="A63" s="69"/>
       <c r="B63" s="20" t="s">
         <v>25</v>
       </c>
@@ -26476,7 +26464,7 @@
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A64" s="79"/>
+      <c r="A64" s="69"/>
       <c r="B64" s="20" t="s">
         <v>26</v>
       </c>
@@ -26532,7 +26520,7 @@
       </c>
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A65" s="79"/>
+      <c r="A65" s="69"/>
       <c r="B65" s="20" t="s">
         <v>27</v>
       </c>
@@ -26592,7 +26580,7 @@
       </c>
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A66" s="79"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="20" t="s">
         <v>28</v>
       </c>
@@ -26652,7 +26640,7 @@
       </c>
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A67" s="79"/>
+      <c r="A67" s="69"/>
       <c r="B67" s="20" t="s">
         <v>29</v>
       </c>
@@ -26712,7 +26700,7 @@
       </c>
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A68" s="79"/>
+      <c r="A68" s="69"/>
       <c r="B68" s="20" t="s">
         <v>30</v>
       </c>
@@ -26772,7 +26760,7 @@
       </c>
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A69" s="79"/>
+      <c r="A69" s="69"/>
       <c r="B69" s="20" t="s">
         <v>31</v>
       </c>
@@ -26828,7 +26816,7 @@
       </c>
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A70" s="79"/>
+      <c r="A70" s="69"/>
       <c r="B70" s="20" t="s">
         <v>32</v>
       </c>
@@ -26888,73 +26876,73 @@
       </c>
     </row>
     <row r="73" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A73" s="87" t="s">
+      <c r="A73" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="B73" s="87"/>
-      <c r="C73" s="87"/>
-      <c r="D73" s="87"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="87"/>
-      <c r="G73" s="87"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="77"/>
     </row>
     <row r="74" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="C74" s="78" t="s">
+      <c r="C74" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="D74" s="78"/>
-      <c r="F74" s="79" t="s">
+      <c r="D74" s="68"/>
+      <c r="F74" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="G74" s="79"/>
-      <c r="I74" s="79" t="s">
+      <c r="G74" s="69"/>
+      <c r="I74" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="J74" s="79"/>
-      <c r="L74" s="79" t="s">
+      <c r="J74" s="69"/>
+      <c r="L74" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="M74" s="79"/>
-      <c r="O74" s="79" t="s">
+      <c r="M74" s="69"/>
+      <c r="O74" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="P74" s="79"/>
-      <c r="R74" s="79" t="s">
+      <c r="P74" s="69"/>
+      <c r="R74" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="S74" s="79"/>
-      <c r="U74" s="79" t="s">
+      <c r="S74" s="69"/>
+      <c r="U74" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="V74" s="79"/>
-      <c r="X74" s="79" t="s">
+      <c r="V74" s="69"/>
+      <c r="X74" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="Y74" s="79"/>
-      <c r="AA74" s="79" t="s">
+      <c r="Y74" s="69"/>
+      <c r="AA74" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="AB74" s="79"/>
-      <c r="AD74" s="79" t="s">
+      <c r="AB74" s="69"/>
+      <c r="AD74" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="AE74" s="79"/>
-      <c r="AG74" s="79" t="s">
+      <c r="AE74" s="69"/>
+      <c r="AG74" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="AH74" s="79"/>
-      <c r="AJ74" s="79" t="s">
+      <c r="AH74" s="69"/>
+      <c r="AJ74" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="AK74" s="79"/>
-      <c r="AM74" s="79" t="s">
+      <c r="AK74" s="69"/>
+      <c r="AM74" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="AN74" s="79"/>
-      <c r="AP74" s="79" t="s">
+      <c r="AN74" s="69"/>
+      <c r="AP74" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="AQ74" s="79"/>
+      <c r="AQ74" s="69"/>
     </row>
     <row r="75" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B75" s="9" t="s">
@@ -27046,7 +27034,7 @@
       </c>
     </row>
     <row r="76" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A76" s="79" t="s">
+      <c r="A76" s="69" t="s">
         <v>2</v>
       </c>
       <c r="B76" s="20" t="s">
@@ -27139,7 +27127,7 @@
       </c>
     </row>
     <row r="77" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A77" s="79"/>
+      <c r="A77" s="69"/>
       <c r="B77" s="20" t="s">
         <v>8</v>
       </c>
@@ -27230,7 +27218,7 @@
       </c>
     </row>
     <row r="78" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A78" s="79"/>
+      <c r="A78" s="69"/>
       <c r="B78" s="20" t="s">
         <v>9</v>
       </c>
@@ -27321,7 +27309,7 @@
       </c>
     </row>
     <row r="79" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A79" s="79"/>
+      <c r="A79" s="69"/>
       <c r="B79" s="20" t="s">
         <v>10</v>
       </c>
@@ -27412,7 +27400,7 @@
       </c>
     </row>
     <row r="80" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A80" s="79"/>
+      <c r="A80" s="69"/>
       <c r="B80" s="20" t="s">
         <v>11</v>
       </c>
@@ -27503,7 +27491,7 @@
       </c>
     </row>
     <row r="81" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A81" s="79"/>
+      <c r="A81" s="69"/>
       <c r="B81" s="20" t="s">
         <v>12</v>
       </c>
@@ -27594,7 +27582,7 @@
       </c>
     </row>
     <row r="82" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A82" s="79"/>
+      <c r="A82" s="69"/>
       <c r="B82" s="20" t="s">
         <v>13</v>
       </c>
@@ -27685,7 +27673,7 @@
       </c>
     </row>
     <row r="83" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A83" s="79"/>
+      <c r="A83" s="69"/>
       <c r="B83" s="20" t="s">
         <v>43</v>
       </c>
@@ -27776,7 +27764,7 @@
       </c>
     </row>
     <row r="84" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A84" s="79"/>
+      <c r="A84" s="69"/>
       <c r="B84" s="20" t="s">
         <v>14</v>
       </c>
@@ -27867,7 +27855,7 @@
       </c>
     </row>
     <row r="85" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A85" s="79"/>
+      <c r="A85" s="69"/>
       <c r="B85" s="20" t="s">
         <v>15</v>
       </c>
@@ -27958,7 +27946,7 @@
       </c>
     </row>
     <row r="86" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A86" s="79"/>
+      <c r="A86" s="69"/>
       <c r="B86" s="20" t="s">
         <v>16</v>
       </c>
@@ -28049,7 +28037,7 @@
       </c>
     </row>
     <row r="87" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A87" s="79"/>
+      <c r="A87" s="69"/>
       <c r="B87" s="20" t="s">
         <v>17</v>
       </c>
@@ -28140,7 +28128,7 @@
       </c>
     </row>
     <row r="88" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A88" s="79"/>
+      <c r="A88" s="69"/>
       <c r="B88" s="20" t="s">
         <v>18</v>
       </c>
@@ -28231,7 +28219,7 @@
       </c>
     </row>
     <row r="89" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A89" s="79"/>
+      <c r="A89" s="69"/>
       <c r="B89" s="20" t="s">
         <v>19</v>
       </c>
@@ -28318,7 +28306,7 @@
       </c>
     </row>
     <row r="90" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A90" s="79"/>
+      <c r="A90" s="69"/>
       <c r="B90" s="20" t="s">
         <v>20</v>
       </c>
@@ -28441,7 +28429,7 @@
       <c r="AQ91" s="14"/>
     </row>
     <row r="92" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A92" s="79" t="s">
+      <c r="A92" s="69" t="s">
         <v>3</v>
       </c>
       <c r="B92" s="20" t="s">
@@ -28533,7 +28521,7 @@
       </c>
     </row>
     <row r="93" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A93" s="79"/>
+      <c r="A93" s="69"/>
       <c r="B93" s="20" t="s">
         <v>21</v>
       </c>
@@ -28623,7 +28611,7 @@
       </c>
     </row>
     <row r="94" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A94" s="79"/>
+      <c r="A94" s="69"/>
       <c r="B94" s="20" t="s">
         <v>22</v>
       </c>
@@ -28713,7 +28701,7 @@
       </c>
     </row>
     <row r="95" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A95" s="79"/>
+      <c r="A95" s="69"/>
       <c r="B95" s="20" t="s">
         <v>42</v>
       </c>
@@ -28803,7 +28791,7 @@
       </c>
     </row>
     <row r="96" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A96" s="79"/>
+      <c r="A96" s="69"/>
       <c r="B96" s="20" t="s">
         <v>23</v>
       </c>
@@ -28893,7 +28881,7 @@
       </c>
     </row>
     <row r="97" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A97" s="79"/>
+      <c r="A97" s="69"/>
       <c r="B97" s="20" t="s">
         <v>46</v>
       </c>
@@ -28983,7 +28971,7 @@
       </c>
     </row>
     <row r="98" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A98" s="79"/>
+      <c r="A98" s="69"/>
       <c r="B98" s="20" t="s">
         <v>24</v>
       </c>
@@ -29073,7 +29061,7 @@
       </c>
     </row>
     <row r="99" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A99" s="79"/>
+      <c r="A99" s="69"/>
       <c r="B99" s="20" t="s">
         <v>25</v>
       </c>
@@ -29163,7 +29151,7 @@
       </c>
     </row>
     <row r="100" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A100" s="79"/>
+      <c r="A100" s="69"/>
       <c r="B100" s="20" t="s">
         <v>26</v>
       </c>
@@ -29253,7 +29241,7 @@
       </c>
     </row>
     <row r="101" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A101" s="79"/>
+      <c r="A101" s="69"/>
       <c r="B101" s="20" t="s">
         <v>27</v>
       </c>
@@ -29343,7 +29331,7 @@
       </c>
     </row>
     <row r="102" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A102" s="79"/>
+      <c r="A102" s="69"/>
       <c r="B102" s="20" t="s">
         <v>28</v>
       </c>
@@ -29425,7 +29413,7 @@
       </c>
     </row>
     <row r="103" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A103" s="79"/>
+      <c r="A103" s="69"/>
       <c r="B103" s="20" t="s">
         <v>29</v>
       </c>
@@ -29515,7 +29503,7 @@
       </c>
     </row>
     <row r="104" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A104" s="79"/>
+      <c r="A104" s="69"/>
       <c r="B104" s="20" t="s">
         <v>30</v>
       </c>
@@ -29605,7 +29593,7 @@
       </c>
     </row>
     <row r="105" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A105" s="79"/>
+      <c r="A105" s="69"/>
       <c r="B105" s="20" t="s">
         <v>31</v>
       </c>
@@ -29695,7 +29683,7 @@
       </c>
     </row>
     <row r="106" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A106" s="79"/>
+      <c r="A106" s="69"/>
       <c r="B106" s="20" t="s">
         <v>32</v>
       </c>
@@ -29782,11 +29770,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AD74:AE74"/>
-    <mergeCell ref="AG74:AH74"/>
-    <mergeCell ref="AJ74:AK74"/>
-    <mergeCell ref="AM74:AN74"/>
-    <mergeCell ref="AP74:AQ74"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="A20:A34"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="AA38:AB38"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="A40:A54"/>
+    <mergeCell ref="A56:A70"/>
     <mergeCell ref="AA74:AB74"/>
     <mergeCell ref="A76:A90"/>
     <mergeCell ref="A92:A106"/>
@@ -29798,21 +29796,11 @@
     <mergeCell ref="R74:S74"/>
     <mergeCell ref="U74:V74"/>
     <mergeCell ref="X74:Y74"/>
-    <mergeCell ref="AA38:AB38"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="A40:A54"/>
-    <mergeCell ref="A56:A70"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="A20:A34"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="AD74:AE74"/>
+    <mergeCell ref="AG74:AH74"/>
+    <mergeCell ref="AJ74:AK74"/>
+    <mergeCell ref="AM74:AN74"/>
+    <mergeCell ref="AP74:AQ74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
